--- a/final.xlsx
+++ b/final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="339">
   <si>
     <t>ciudades</t>
   </si>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t>restaurantes</t>
-  </si>
-  <si>
-    <t>calculo_viaje</t>
   </si>
   <si>
     <t>Albania-Tirana</t>
@@ -1404,13 +1401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO34"/>
+  <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1531,13 +1528,10 @@
       <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:40">
+      <c r="A2" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41">
-      <c r="A2" t="s">
-        <v>41</v>
       </c>
       <c r="B2">
         <v>5.7</v>
@@ -1579,28 +1573,28 @@
         <v>196</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="W2">
         <v>57</v>
@@ -1627,7 +1621,7 @@
         <v>494000</v>
       </c>
       <c r="AE2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF2">
         <v>34</v>
@@ -1656,13 +1650,10 @@
       <c r="AN2">
         <v>29.34</v>
       </c>
-      <c r="AO2">
-        <v>217.02</v>
-      </c>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:40">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>2.8</v>
@@ -1704,28 +1695,28 @@
         <v>155</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="W3">
         <v>119</v>
@@ -1752,7 +1743,7 @@
         <v>1897000</v>
       </c>
       <c r="AE3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF3">
         <v>185</v>
@@ -1781,13 +1772,10 @@
       <c r="AN3">
         <v>70.08</v>
       </c>
-      <c r="AO3">
-        <v>430.74</v>
-      </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:40">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>-2.5</v>
@@ -1829,28 +1817,28 @@
         <v>1943</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="W4">
         <v>36</v>
@@ -1877,7 +1865,7 @@
         <v>1975000</v>
       </c>
       <c r="AE4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF4">
         <v>71</v>
@@ -1906,13 +1894,10 @@
       <c r="AN4">
         <v>35.98</v>
       </c>
-      <c r="AO4">
-        <v>198.72</v>
-      </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:40">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>-0.2</v>
@@ -1954,28 +1939,28 @@
         <v>233</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="W5">
         <v>106</v>
@@ -2002,7 +1987,7 @@
         <v>1236000</v>
       </c>
       <c r="AE5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF5">
         <v>51</v>
@@ -2031,13 +2016,10 @@
       <c r="AN5">
         <v>29.86</v>
       </c>
-      <c r="AO5">
-        <v>223.02</v>
-      </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:40">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -2079,28 +2061,28 @@
         <v>109</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W6">
         <v>125</v>
@@ -2127,7 +2109,7 @@
         <v>602481</v>
       </c>
       <c r="AE6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF6">
         <v>66</v>
@@ -2156,13 +2138,10 @@
       <c r="AN6">
         <v>95.14</v>
       </c>
-      <c r="AO6">
-        <v>488.28</v>
-      </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:40">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>-1.5</v>
@@ -2204,28 +2183,28 @@
         <v>230</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="W7">
         <v>54</v>
@@ -2252,7 +2231,7 @@
         <v>279631</v>
       </c>
       <c r="AE7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF7">
         <v>16</v>
@@ -2281,13 +2260,10 @@
       <c r="AN7">
         <v>43.83</v>
       </c>
-      <c r="AO7">
-        <v>315.06</v>
-      </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:40">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>-2.5</v>
@@ -2329,28 +2305,28 @@
         <v>375</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="W8">
         <v>52</v>
@@ -2377,7 +2353,7 @@
         <v>426538</v>
       </c>
       <c r="AE8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF8">
         <v>61</v>
@@ -2406,13 +2382,10 @@
       <c r="AN8">
         <v>51.24</v>
       </c>
-      <c r="AO8">
-        <v>306.06</v>
-      </c>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:40">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>4.9</v>
@@ -2454,28 +2427,28 @@
         <v>162</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="W9">
         <v>329</v>
@@ -2502,7 +2475,7 @@
         <v>2161000</v>
       </c>
       <c r="AE9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF9">
         <v>166</v>
@@ -2531,13 +2504,10 @@
       <c r="AN9">
         <v>75.37</v>
       </c>
-      <c r="AO9">
-        <v>449.1</v>
-      </c>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:40">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2579,28 +2549,28 @@
         <v>412</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W10">
         <v>169</v>
@@ -2627,7 +2597,7 @@
         <v>3167000</v>
       </c>
       <c r="AE10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF10">
         <v>3</v>
@@ -2656,13 +2626,10 @@
       <c r="AN10">
         <v>54.76</v>
       </c>
-      <c r="AO10">
-        <v>339.96</v>
-      </c>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:40">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>5.9</v>
@@ -2704,28 +2671,28 @@
         <v>58</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="W11">
         <v>212</v>
@@ -2752,7 +2719,7 @@
         <v>544107</v>
       </c>
       <c r="AE11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF11">
         <v>38</v>
@@ -2781,13 +2748,10 @@
       <c r="AN11">
         <v>82.65000000000001</v>
       </c>
-      <c r="AO11">
-        <v>452.1</v>
-      </c>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:40">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>7.4</v>
@@ -2829,28 +2793,28 @@
         <v>189</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="W12">
         <v>327</v>
@@ -2877,7 +2841,7 @@
         <v>2873000</v>
       </c>
       <c r="AE12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF12">
         <v>381</v>
@@ -2906,13 +2870,10 @@
       <c r="AN12">
         <v>75.72</v>
       </c>
-      <c r="AO12">
-        <v>415.5</v>
-      </c>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:40">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>-1.6</v>
@@ -2954,28 +2915,28 @@
         <v>226</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="W13">
         <v>56</v>
@@ -3002,7 +2963,7 @@
         <v>544386</v>
       </c>
       <c r="AE13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF13">
         <v>23</v>
@@ -3031,13 +2992,10 @@
       <c r="AN13">
         <v>43.95</v>
       </c>
-      <c r="AO13">
-        <v>275.46</v>
-      </c>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:40">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <v>0.7</v>
@@ -3079,28 +3037,28 @@
         <v>435</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="W14">
         <v>21</v>
@@ -3127,7 +3085,7 @@
         <v>546824</v>
       </c>
       <c r="AE14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF14">
         <v>28</v>
@@ -3156,13 +3114,10 @@
       <c r="AN14">
         <v>23.67</v>
       </c>
-      <c r="AO14">
-        <v>189.48</v>
-      </c>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:40">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>-0.2</v>
@@ -3204,28 +3159,28 @@
         <v>551</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="W15">
         <v>21</v>
@@ -3252,7 +3207,7 @@
         <v>669694</v>
       </c>
       <c r="AE15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF15">
         <v>1</v>
@@ -3281,13 +3236,10 @@
       <c r="AN15">
         <v>27.71</v>
       </c>
-      <c r="AO15">
-        <v>193.56</v>
-      </c>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:40">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16">
         <v>5.7</v>
@@ -3329,28 +3281,28 @@
         <v>134</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="W16">
         <v>381</v>
@@ -3377,7 +3329,7 @@
         <v>821752</v>
       </c>
       <c r="AE16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF16">
         <v>201</v>
@@ -3406,13 +3358,10 @@
       <c r="AN16">
         <v>83.48999999999999</v>
       </c>
-      <c r="AO16">
-        <v>448.98</v>
-      </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:40">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>12</v>
@@ -3454,28 +3403,28 @@
         <v>53</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="W17">
         <v>157</v>
@@ -3502,7 +3451,7 @@
         <v>504718</v>
       </c>
       <c r="AE17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF17">
         <v>245</v>
@@ -3531,13 +3480,10 @@
       <c r="AN17">
         <v>43.13</v>
       </c>
-      <c r="AO17">
-        <v>302.34</v>
-      </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:40">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>1.6</v>
@@ -3579,28 +3525,28 @@
         <v>274</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="W18">
         <v>404</v>
@@ -3627,7 +3573,7 @@
         <v>1309000</v>
       </c>
       <c r="AE18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF18">
         <v>144</v>
@@ -3656,13 +3602,10 @@
       <c r="AN18">
         <v>33.25</v>
       </c>
-      <c r="AO18">
-        <v>270.72</v>
-      </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:40">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19">
         <v>-1.2</v>
@@ -3704,28 +3647,28 @@
         <v>146</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="W19">
         <v>20</v>
@@ -3752,7 +3695,7 @@
         <v>975551</v>
       </c>
       <c r="AE19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF19">
         <v>66</v>
@@ -3781,13 +3724,10 @@
       <c r="AN19">
         <v>75.04000000000001</v>
       </c>
-      <c r="AO19">
-        <v>429.3</v>
-      </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:40">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20">
         <v>3.4</v>
@@ -3829,28 +3769,28 @@
         <v>181</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="W20">
         <v>372</v>
@@ -3877,7 +3817,7 @@
         <v>3645000</v>
       </c>
       <c r="AE20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF20">
         <v>253</v>
@@ -3906,13 +3846,10 @@
       <c r="AN20">
         <v>63.56</v>
       </c>
-      <c r="AO20">
-        <v>405.72</v>
-      </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:40">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21">
         <v>4.7</v>
@@ -3954,28 +3891,28 @@
         <v>92</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="W21">
         <v>107</v>
@@ -4002,7 +3939,7 @@
         <v>181726</v>
       </c>
       <c r="AE21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF21">
         <v>98</v>
@@ -4031,13 +3968,10 @@
       <c r="AN21">
         <v>83.40000000000001</v>
       </c>
-      <c r="AO21">
-        <v>437.82</v>
-      </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:40">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <v>-1.7</v>
@@ -4079,28 +4013,28 @@
         <v>326</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="W22">
         <v>27</v>
@@ -4127,7 +4061,7 @@
         <v>275524</v>
       </c>
       <c r="AE22" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF22">
         <v>19</v>
@@ -4156,13 +4090,10 @@
       <c r="AN22">
         <v>23.78</v>
       </c>
-      <c r="AO22">
-        <v>214.32</v>
-      </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:40">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23">
         <v>2.2</v>
@@ -4204,28 +4135,28 @@
         <v>322</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="W23">
         <v>83</v>
@@ -4252,7 +4183,7 @@
         <v>806341</v>
       </c>
       <c r="AE23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF23">
         <v>21</v>
@@ -4281,13 +4212,10 @@
       <c r="AN23">
         <v>40.36</v>
       </c>
-      <c r="AO23">
-        <v>295.08</v>
-      </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:40">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24">
         <v>2.6</v>
@@ -4329,28 +4257,28 @@
         <v>172</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W24">
         <v>61</v>
@@ -4377,7 +4305,7 @@
         <v>424428</v>
       </c>
       <c r="AE24" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF24">
         <v>26</v>
@@ -4406,13 +4334,10 @@
       <c r="AN24">
         <v>33.64</v>
       </c>
-      <c r="AO24">
-        <v>269.88</v>
-      </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:40">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25">
         <v>-3.3</v>
@@ -4454,28 +4379,28 @@
         <v>368</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="W25">
         <v>50</v>
@@ -4502,7 +4427,7 @@
         <v>631695</v>
       </c>
       <c r="AE25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF25">
         <v>43</v>
@@ -4531,13 +4456,10 @@
       <c r="AN25">
         <v>77.91</v>
       </c>
-      <c r="AO25">
-        <v>436.92</v>
-      </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:40">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26">
         <v>1.8</v>
@@ -4579,28 +4501,28 @@
         <v>158</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="W26">
         <v>213</v>
@@ -4627,7 +4549,7 @@
         <v>9640503</v>
       </c>
       <c r="AE26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF26">
         <v>99</v>
@@ -4656,13 +4578,10 @@
       <c r="AN26">
         <v>33.43</v>
       </c>
-      <c r="AO26">
-        <v>252.18</v>
-      </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:40">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4704,28 +4623,28 @@
         <v>536</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="W27">
         <v>40</v>
@@ -4752,7 +4671,7 @@
         <v>122853</v>
       </c>
       <c r="AE27" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF27">
         <v>11</v>
@@ -4781,13 +4700,10 @@
       <c r="AN27">
         <v>111.85</v>
       </c>
-      <c r="AO27">
-        <v>611.16</v>
-      </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:40">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B28">
         <v>1.7</v>
@@ -4829,28 +4745,28 @@
         <v>348</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="W28">
         <v>63</v>
@@ -4877,7 +4793,7 @@
         <v>632614</v>
       </c>
       <c r="AE28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF28">
         <v>38</v>
@@ -4906,13 +4822,10 @@
       <c r="AN28">
         <v>45.47</v>
       </c>
-      <c r="AO28">
-        <v>295.38</v>
-      </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:40">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29">
         <v>1.9</v>
@@ -4954,28 +4867,28 @@
         <v>130</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="W29">
         <v>16</v>
@@ -5002,7 +4915,7 @@
         <v>639070</v>
       </c>
       <c r="AE29" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF29">
         <v>43</v>
@@ -5031,13 +4944,10 @@
       <c r="AN29">
         <v>96.08</v>
       </c>
-      <c r="AO29">
-        <v>516.54</v>
-      </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:40">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30">
         <v>11.6</v>
@@ -5079,28 +4989,28 @@
         <v>199</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="W30">
         <v>7</v>
@@ -5127,7 +5037,7 @@
         <v>5730</v>
       </c>
       <c r="AE30" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF30">
         <v>1</v>
@@ -5156,13 +5066,10 @@
       <c r="AN30">
         <v>67.28</v>
       </c>
-      <c r="AO30">
-        <v>379.92</v>
-      </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:40">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31">
         <v>-2.1</v>
@@ -5204,28 +5111,28 @@
         <v>315</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="W31">
         <v>48</v>
@@ -5252,7 +5159,7 @@
         <v>634293</v>
       </c>
       <c r="AE31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF31">
         <v>24</v>
@@ -5281,13 +5188,10 @@
       <c r="AN31">
         <v>111.53</v>
       </c>
-      <c r="AO31">
-        <v>605.9399999999999</v>
-      </c>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:40">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32">
         <v>1.1</v>
@@ -5329,28 +5233,28 @@
         <v>108</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="W32">
         <v>93</v>
@@ -5377,7 +5281,7 @@
         <v>1765000</v>
       </c>
       <c r="AE32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF32">
         <v>153</v>
@@ -5406,13 +5310,10 @@
       <c r="AN32">
         <v>32.72</v>
       </c>
-      <c r="AO32">
-        <v>234.78</v>
-      </c>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="1:40">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -5454,28 +5355,28 @@
         <v>189</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W33">
         <v>103</v>
@@ -5502,7 +5403,7 @@
         <v>1830000</v>
       </c>
       <c r="AE33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF33">
         <v>62</v>
@@ -5531,13 +5432,10 @@
       <c r="AN33">
         <v>32.26</v>
       </c>
-      <c r="AO33">
-        <v>218.7</v>
-      </c>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34" spans="1:40">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B34">
         <v>2.3</v>
@@ -5579,28 +5477,28 @@
         <v>378</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="W34">
         <v>129</v>
@@ -5627,7 +5525,7 @@
         <v>1374000</v>
       </c>
       <c r="AE34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF34">
         <v>84</v>
@@ -5655,9 +5553,6 @@
       </c>
       <c r="AN34">
         <v>27.84</v>
-      </c>
-      <c r="AO34">
-        <v>212.34</v>
       </c>
     </row>
   </sheetData>

--- a/final.xlsx
+++ b/final.xlsx
@@ -14,45 +14,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="375">
   <si>
     <t>ciudades</t>
   </si>
   <si>
-    <t>T-ene</t>
-  </si>
-  <si>
-    <t>T-feb</t>
-  </si>
-  <si>
-    <t>T-mar</t>
-  </si>
-  <si>
-    <t>T-abr</t>
-  </si>
-  <si>
-    <t>T-may</t>
-  </si>
-  <si>
-    <t>T-jun</t>
-  </si>
-  <si>
-    <t>T-jul</t>
-  </si>
-  <si>
-    <t>T-ago</t>
-  </si>
-  <si>
-    <t>T-sep</t>
-  </si>
-  <si>
-    <t>T-oct</t>
-  </si>
-  <si>
-    <t>T-nov</t>
-  </si>
-  <si>
-    <t>T-Dic</t>
+    <t>ene</t>
+  </si>
+  <si>
+    <t>feb</t>
+  </si>
+  <si>
+    <t>mer</t>
+  </si>
+  <si>
+    <t>abr</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>jun</t>
+  </si>
+  <si>
+    <t>jul</t>
+  </si>
+  <si>
+    <t>ago</t>
+  </si>
+  <si>
+    <t>sep</t>
+  </si>
+  <si>
+    <t>oct</t>
+  </si>
+  <si>
+    <t>nov</t>
+  </si>
+  <si>
+    <t>dic</t>
   </si>
   <si>
     <t>precio/vuelo</t>
@@ -136,6 +136,15 @@
     <t>restaurantes</t>
   </si>
   <si>
+    <t>lalo</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
     <t>Albania-Tirana</t>
   </si>
   <si>
@@ -1031,6 +1040,105 @@
   </si>
   <si>
     <t>grande</t>
+  </si>
+  <si>
+    <t>41.33895239129471, 19.82159729288747</t>
+  </si>
+  <si>
+    <t>48.22205734167154, 16.410958996969477</t>
+  </si>
+  <si>
+    <t>53.88997952019282, 27.54664671006768</t>
+  </si>
+  <si>
+    <t>42.69686077387406, 23.31226414121231</t>
+  </si>
+  <si>
+    <t>55.682720262230774, 12.580929681048515</t>
+  </si>
+  <si>
+    <t>46.068890197428146, 14.507370840919233</t>
+  </si>
+  <si>
+    <t>59.43533479670864, 24.757411054356492</t>
+  </si>
+  <si>
+    <t>48.85400557556953, 2.3410128513401176</t>
+  </si>
+  <si>
+    <t>37.992075081237076, 23.72803543033514</t>
+  </si>
+  <si>
+    <t>53.3479355633932, -6.268163839465581</t>
+  </si>
+  <si>
+    <t>41.89882302468736, 12.494025695920026</t>
+  </si>
+  <si>
+    <t>54.69195443262589, 25.28692951669238</t>
+  </si>
+  <si>
+    <t>41.9995732514203, 21.433582814662934</t>
+  </si>
+  <si>
+    <t>47.020039573975396, 28.844390580283594</t>
+  </si>
+  <si>
+    <t>52.37202464176371, 4.892997578064809</t>
+  </si>
+  <si>
+    <t>38.720739133467404, -9.138135109637144</t>
+  </si>
+  <si>
+    <t>50.082239620441655, 14.438447657463113</t>
+  </si>
+  <si>
+    <t>59.33158449882472, 18.06720417156543</t>
+  </si>
+  <si>
+    <t>52.52198407271333, 13.403514353151282</t>
+  </si>
+  <si>
+    <t>50.88251872933396, 4.366899090634146</t>
+  </si>
+  <si>
+    <t>43.85364821595164, 18.400472853507264</t>
+  </si>
+  <si>
+    <t>45.80458077043125, 15.983212901477012</t>
+  </si>
+  <si>
+    <t>48.14134349626256, 17.105952286407113</t>
+  </si>
+  <si>
+    <t>60.169370516542614, 24.938340343061213</t>
+  </si>
+  <si>
+    <t>47.50142717714276, 19.05191235061751</t>
+  </si>
+  <si>
+    <t>64.12411368467832, -21.827600350935892</t>
+  </si>
+  <si>
+    <t>56.955797648923856, 24.105113374670477</t>
+  </si>
+  <si>
+    <t>49.610467283194716, 6.13055411335307</t>
+  </si>
+  <si>
+    <t>35.89904573561591, 14.514646949823524</t>
+  </si>
+  <si>
+    <t>59.912385493650895, 10.7491253941196</t>
+  </si>
+  <si>
+    <t>52.244862630904386, 21.01611488487888</t>
+  </si>
+  <si>
+    <t>44.429063518758255, 26.098717121969965</t>
+  </si>
+  <si>
+    <t>44.8090337390697, 20.462289757506777</t>
   </si>
 </sst>
 </file>
@@ -1401,13 +1509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN34"/>
+  <dimension ref="A1:AQ34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:43">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1528,10 +1636,19 @@
       <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:43">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>5.7</v>
@@ -1573,28 +1690,28 @@
         <v>196</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="W2">
         <v>57</v>
@@ -1621,7 +1738,7 @@
         <v>494000</v>
       </c>
       <c r="AE2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AF2">
         <v>34</v>
@@ -1650,10 +1767,19 @@
       <c r="AN2">
         <v>29.34</v>
       </c>
+      <c r="AO2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AP2">
+        <v>41.33895239129471</v>
+      </c>
+      <c r="AQ2">
+        <v>19.82159729288747</v>
+      </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:43">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>2.8</v>
@@ -1695,28 +1821,28 @@
         <v>155</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="W3">
         <v>119</v>
@@ -1743,7 +1869,7 @@
         <v>1897000</v>
       </c>
       <c r="AE3" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AF3">
         <v>185</v>
@@ -1772,10 +1898,19 @@
       <c r="AN3">
         <v>70.08</v>
       </c>
+      <c r="AO3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AP3">
+        <v>48.22205734167154</v>
+      </c>
+      <c r="AQ3">
+        <v>16.41095899696948</v>
+      </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:43">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>-2.5</v>
@@ -1817,28 +1952,28 @@
         <v>1943</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="W4">
         <v>36</v>
@@ -1865,7 +2000,7 @@
         <v>1975000</v>
       </c>
       <c r="AE4" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AF4">
         <v>71</v>
@@ -1894,10 +2029,19 @@
       <c r="AN4">
         <v>35.98</v>
       </c>
+      <c r="AO4" t="s">
+        <v>344</v>
+      </c>
+      <c r="AP4">
+        <v>53.88997952019282</v>
+      </c>
+      <c r="AQ4">
+        <v>27.54664671006768</v>
+      </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:43">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>-0.2</v>
@@ -1939,28 +2083,28 @@
         <v>233</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="W5">
         <v>106</v>
@@ -1987,7 +2131,7 @@
         <v>1236000</v>
       </c>
       <c r="AE5" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AF5">
         <v>51</v>
@@ -2016,10 +2160,19 @@
       <c r="AN5">
         <v>29.86</v>
       </c>
+      <c r="AO5" t="s">
+        <v>345</v>
+      </c>
+      <c r="AP5">
+        <v>42.69686077387406</v>
+      </c>
+      <c r="AQ5">
+        <v>23.31226414121231</v>
+      </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:43">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -2061,28 +2214,28 @@
         <v>109</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="W6">
         <v>125</v>
@@ -2109,7 +2262,7 @@
         <v>602481</v>
       </c>
       <c r="AE6" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AF6">
         <v>66</v>
@@ -2138,10 +2291,19 @@
       <c r="AN6">
         <v>95.14</v>
       </c>
+      <c r="AO6" t="s">
+        <v>346</v>
+      </c>
+      <c r="AP6">
+        <v>55.68272026223077</v>
+      </c>
+      <c r="AQ6">
+        <v>12.58092968104852</v>
+      </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:43">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <v>-1.5</v>
@@ -2183,28 +2345,28 @@
         <v>230</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="W7">
         <v>54</v>
@@ -2231,7 +2393,7 @@
         <v>279631</v>
       </c>
       <c r="AE7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AF7">
         <v>16</v>
@@ -2260,10 +2422,19 @@
       <c r="AN7">
         <v>43.83</v>
       </c>
+      <c r="AO7" t="s">
+        <v>347</v>
+      </c>
+      <c r="AP7">
+        <v>46.06889019742815</v>
+      </c>
+      <c r="AQ7">
+        <v>14.50737084091923</v>
+      </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:43">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B8">
         <v>-2.5</v>
@@ -2305,28 +2476,28 @@
         <v>375</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="W8">
         <v>52</v>
@@ -2353,7 +2524,7 @@
         <v>426538</v>
       </c>
       <c r="AE8" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AF8">
         <v>61</v>
@@ -2382,10 +2553,19 @@
       <c r="AN8">
         <v>51.24</v>
       </c>
+      <c r="AO8" t="s">
+        <v>348</v>
+      </c>
+      <c r="AP8">
+        <v>59.43533479670864</v>
+      </c>
+      <c r="AQ8">
+        <v>24.75741105435649</v>
+      </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:43">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>4.9</v>
@@ -2427,28 +2607,28 @@
         <v>162</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="W9">
         <v>329</v>
@@ -2475,7 +2655,7 @@
         <v>2161000</v>
       </c>
       <c r="AE9" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AF9">
         <v>166</v>
@@ -2504,10 +2684,19 @@
       <c r="AN9">
         <v>75.37</v>
       </c>
+      <c r="AO9" t="s">
+        <v>349</v>
+      </c>
+      <c r="AP9">
+        <v>48.85400557556953</v>
+      </c>
+      <c r="AQ9">
+        <v>2.341012851340118</v>
+      </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:43">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2549,28 +2738,28 @@
         <v>412</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="W10">
         <v>169</v>
@@ -2597,7 +2786,7 @@
         <v>3167000</v>
       </c>
       <c r="AE10" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AF10">
         <v>3</v>
@@ -2626,10 +2815,19 @@
       <c r="AN10">
         <v>54.76</v>
       </c>
+      <c r="AO10" t="s">
+        <v>350</v>
+      </c>
+      <c r="AP10">
+        <v>37.99207508123708</v>
+      </c>
+      <c r="AQ10">
+        <v>23.72803543033514</v>
+      </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:43">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B11">
         <v>5.9</v>
@@ -2671,28 +2869,28 @@
         <v>58</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="W11">
         <v>212</v>
@@ -2719,7 +2917,7 @@
         <v>544107</v>
       </c>
       <c r="AE11" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AF11">
         <v>38</v>
@@ -2748,10 +2946,19 @@
       <c r="AN11">
         <v>82.65000000000001</v>
       </c>
+      <c r="AO11" t="s">
+        <v>351</v>
+      </c>
+      <c r="AP11">
+        <v>53.3479355633932</v>
+      </c>
+      <c r="AQ11">
+        <v>-6.268163839465581</v>
+      </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:43">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B12">
         <v>7.4</v>
@@ -2793,28 +3000,28 @@
         <v>189</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="W12">
         <v>327</v>
@@ -2841,7 +3048,7 @@
         <v>2873000</v>
       </c>
       <c r="AE12" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AF12">
         <v>381</v>
@@ -2870,10 +3077,19 @@
       <c r="AN12">
         <v>75.72</v>
       </c>
+      <c r="AO12" t="s">
+        <v>352</v>
+      </c>
+      <c r="AP12">
+        <v>41.89882302468736</v>
+      </c>
+      <c r="AQ12">
+        <v>12.49402569592003</v>
+      </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:43">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B13">
         <v>-1.6</v>
@@ -2915,28 +3131,28 @@
         <v>226</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="W13">
         <v>56</v>
@@ -2963,7 +3179,7 @@
         <v>544386</v>
       </c>
       <c r="AE13" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AF13">
         <v>23</v>
@@ -2992,10 +3208,19 @@
       <c r="AN13">
         <v>43.95</v>
       </c>
+      <c r="AO13" t="s">
+        <v>353</v>
+      </c>
+      <c r="AP13">
+        <v>54.69195443262589</v>
+      </c>
+      <c r="AQ13">
+        <v>25.28692951669238</v>
+      </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:43">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B14">
         <v>0.7</v>
@@ -3037,28 +3262,28 @@
         <v>435</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="W14">
         <v>21</v>
@@ -3085,7 +3310,7 @@
         <v>546824</v>
       </c>
       <c r="AE14" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AF14">
         <v>28</v>
@@ -3114,10 +3339,19 @@
       <c r="AN14">
         <v>23.67</v>
       </c>
+      <c r="AO14" t="s">
+        <v>354</v>
+      </c>
+      <c r="AP14">
+        <v>41.9995732514203</v>
+      </c>
+      <c r="AQ14">
+        <v>21.43358281466293</v>
+      </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:43">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B15">
         <v>-0.2</v>
@@ -3159,28 +3393,28 @@
         <v>551</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="W15">
         <v>21</v>
@@ -3207,7 +3441,7 @@
         <v>669694</v>
       </c>
       <c r="AE15" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AF15">
         <v>1</v>
@@ -3236,10 +3470,19 @@
       <c r="AN15">
         <v>27.71</v>
       </c>
+      <c r="AO15" t="s">
+        <v>355</v>
+      </c>
+      <c r="AP15">
+        <v>47.0200395739754</v>
+      </c>
+      <c r="AQ15">
+        <v>28.84439058028359</v>
+      </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:43">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B16">
         <v>5.7</v>
@@ -3281,28 +3524,28 @@
         <v>134</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="W16">
         <v>381</v>
@@ -3329,7 +3572,7 @@
         <v>821752</v>
       </c>
       <c r="AE16" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AF16">
         <v>201</v>
@@ -3358,10 +3601,19 @@
       <c r="AN16">
         <v>83.48999999999999</v>
       </c>
+      <c r="AO16" t="s">
+        <v>356</v>
+      </c>
+      <c r="AP16">
+        <v>52.37202464176371</v>
+      </c>
+      <c r="AQ16">
+        <v>4.892997578064809</v>
+      </c>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:43">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B17">
         <v>12</v>
@@ -3403,28 +3655,28 @@
         <v>53</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="W17">
         <v>157</v>
@@ -3451,7 +3703,7 @@
         <v>504718</v>
       </c>
       <c r="AE17" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AF17">
         <v>245</v>
@@ -3480,10 +3732,19 @@
       <c r="AN17">
         <v>43.13</v>
       </c>
+      <c r="AO17" t="s">
+        <v>357</v>
+      </c>
+      <c r="AP17">
+        <v>38.72073913346741</v>
+      </c>
+      <c r="AQ17">
+        <v>-9.138135109637144</v>
+      </c>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:43">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B18">
         <v>1.6</v>
@@ -3525,28 +3786,28 @@
         <v>274</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="W18">
         <v>404</v>
@@ -3573,7 +3834,7 @@
         <v>1309000</v>
       </c>
       <c r="AE18" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AF18">
         <v>144</v>
@@ -3602,10 +3863,19 @@
       <c r="AN18">
         <v>33.25</v>
       </c>
+      <c r="AO18" t="s">
+        <v>358</v>
+      </c>
+      <c r="AP18">
+        <v>50.08223962044165</v>
+      </c>
+      <c r="AQ18">
+        <v>14.43844765746311</v>
+      </c>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:43">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B19">
         <v>-1.2</v>
@@ -3647,28 +3917,28 @@
         <v>146</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="W19">
         <v>20</v>
@@ -3695,7 +3965,7 @@
         <v>975551</v>
       </c>
       <c r="AE19" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AF19">
         <v>66</v>
@@ -3724,10 +3994,19 @@
       <c r="AN19">
         <v>75.04000000000001</v>
       </c>
+      <c r="AO19" t="s">
+        <v>359</v>
+      </c>
+      <c r="AP19">
+        <v>59.33158449882472</v>
+      </c>
+      <c r="AQ19">
+        <v>18.06720417156543</v>
+      </c>
     </row>
-    <row r="20" spans="1:40">
+    <row r="20" spans="1:43">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B20">
         <v>3.4</v>
@@ -3769,28 +4048,28 @@
         <v>181</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="W20">
         <v>372</v>
@@ -3817,7 +4096,7 @@
         <v>3645000</v>
       </c>
       <c r="AE20" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AF20">
         <v>253</v>
@@ -3846,10 +4125,19 @@
       <c r="AN20">
         <v>63.56</v>
       </c>
+      <c r="AO20" t="s">
+        <v>360</v>
+      </c>
+      <c r="AP20">
+        <v>52.52198407271333</v>
+      </c>
+      <c r="AQ20">
+        <v>13.40351435315128</v>
+      </c>
     </row>
-    <row r="21" spans="1:40">
+    <row r="21" spans="1:43">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B21">
         <v>4.7</v>
@@ -3891,28 +4179,28 @@
         <v>92</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="W21">
         <v>107</v>
@@ -3939,7 +4227,7 @@
         <v>181726</v>
       </c>
       <c r="AE21" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AF21">
         <v>98</v>
@@ -3968,10 +4256,19 @@
       <c r="AN21">
         <v>83.40000000000001</v>
       </c>
+      <c r="AO21" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP21">
+        <v>50.88251872933396</v>
+      </c>
+      <c r="AQ21">
+        <v>4.366899090634146</v>
+      </c>
     </row>
-    <row r="22" spans="1:40">
+    <row r="22" spans="1:43">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B22">
         <v>-1.7</v>
@@ -4013,28 +4310,28 @@
         <v>326</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="W22">
         <v>27</v>
@@ -4061,7 +4358,7 @@
         <v>275524</v>
       </c>
       <c r="AE22" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AF22">
         <v>19</v>
@@ -4090,10 +4387,19 @@
       <c r="AN22">
         <v>23.78</v>
       </c>
+      <c r="AO22" t="s">
+        <v>362</v>
+      </c>
+      <c r="AP22">
+        <v>43.85364821595164</v>
+      </c>
+      <c r="AQ22">
+        <v>18.40047285350726</v>
+      </c>
     </row>
-    <row r="23" spans="1:40">
+    <row r="23" spans="1:43">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B23">
         <v>2.2</v>
@@ -4135,28 +4441,28 @@
         <v>322</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="W23">
         <v>83</v>
@@ -4183,7 +4489,7 @@
         <v>806341</v>
       </c>
       <c r="AE23" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AF23">
         <v>21</v>
@@ -4212,10 +4518,19 @@
       <c r="AN23">
         <v>40.36</v>
       </c>
+      <c r="AO23" t="s">
+        <v>363</v>
+      </c>
+      <c r="AP23">
+        <v>45.80458077043125</v>
+      </c>
+      <c r="AQ23">
+        <v>15.98321290147701</v>
+      </c>
     </row>
-    <row r="24" spans="1:40">
+    <row r="24" spans="1:43">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B24">
         <v>2.6</v>
@@ -4257,28 +4572,28 @@
         <v>172</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="W24">
         <v>61</v>
@@ -4305,7 +4620,7 @@
         <v>424428</v>
       </c>
       <c r="AE24" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AF24">
         <v>26</v>
@@ -4334,10 +4649,19 @@
       <c r="AN24">
         <v>33.64</v>
       </c>
+      <c r="AO24" t="s">
+        <v>364</v>
+      </c>
+      <c r="AP24">
+        <v>48.14134349626256</v>
+      </c>
+      <c r="AQ24">
+        <v>17.10595228640711</v>
+      </c>
     </row>
-    <row r="25" spans="1:40">
+    <row r="25" spans="1:43">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B25">
         <v>-3.3</v>
@@ -4379,28 +4703,28 @@
         <v>368</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="W25">
         <v>50</v>
@@ -4427,7 +4751,7 @@
         <v>631695</v>
       </c>
       <c r="AE25" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AF25">
         <v>43</v>
@@ -4456,10 +4780,19 @@
       <c r="AN25">
         <v>77.91</v>
       </c>
+      <c r="AO25" t="s">
+        <v>365</v>
+      </c>
+      <c r="AP25">
+        <v>60.16937051654261</v>
+      </c>
+      <c r="AQ25">
+        <v>24.93834034306121</v>
+      </c>
     </row>
-    <row r="26" spans="1:40">
+    <row r="26" spans="1:43">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B26">
         <v>1.8</v>
@@ -4501,28 +4834,28 @@
         <v>158</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="W26">
         <v>213</v>
@@ -4549,7 +4882,7 @@
         <v>9640503</v>
       </c>
       <c r="AE26" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AF26">
         <v>99</v>
@@ -4578,10 +4911,19 @@
       <c r="AN26">
         <v>33.43</v>
       </c>
+      <c r="AO26" t="s">
+        <v>366</v>
+      </c>
+      <c r="AP26">
+        <v>47.50142717714276</v>
+      </c>
+      <c r="AQ26">
+        <v>19.05191235061751</v>
+      </c>
     </row>
-    <row r="27" spans="1:40">
+    <row r="27" spans="1:43">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4623,28 +4965,28 @@
         <v>536</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="W27">
         <v>40</v>
@@ -4671,7 +5013,7 @@
         <v>122853</v>
       </c>
       <c r="AE27" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AF27">
         <v>11</v>
@@ -4700,10 +5042,19 @@
       <c r="AN27">
         <v>111.85</v>
       </c>
+      <c r="AO27" t="s">
+        <v>367</v>
+      </c>
+      <c r="AP27">
+        <v>64.12411368467832</v>
+      </c>
+      <c r="AQ27">
+        <v>-21.82760035093589</v>
+      </c>
     </row>
-    <row r="28" spans="1:40">
+    <row r="28" spans="1:43">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B28">
         <v>1.7</v>
@@ -4745,28 +5096,28 @@
         <v>348</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="W28">
         <v>63</v>
@@ -4793,7 +5144,7 @@
         <v>632614</v>
       </c>
       <c r="AE28" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AF28">
         <v>38</v>
@@ -4822,10 +5173,19 @@
       <c r="AN28">
         <v>45.47</v>
       </c>
+      <c r="AO28" t="s">
+        <v>368</v>
+      </c>
+      <c r="AP28">
+        <v>56.95579764892386</v>
+      </c>
+      <c r="AQ28">
+        <v>24.10511337467048</v>
+      </c>
     </row>
-    <row r="29" spans="1:40">
+    <row r="29" spans="1:43">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B29">
         <v>1.9</v>
@@ -4867,28 +5227,28 @@
         <v>130</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="W29">
         <v>16</v>
@@ -4915,7 +5275,7 @@
         <v>639070</v>
       </c>
       <c r="AE29" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AF29">
         <v>43</v>
@@ -4944,10 +5304,19 @@
       <c r="AN29">
         <v>96.08</v>
       </c>
+      <c r="AO29" t="s">
+        <v>369</v>
+      </c>
+      <c r="AP29">
+        <v>49.61046728319472</v>
+      </c>
+      <c r="AQ29">
+        <v>6.13055411335307</v>
+      </c>
     </row>
-    <row r="30" spans="1:40">
+    <row r="30" spans="1:43">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B30">
         <v>11.6</v>
@@ -4989,28 +5358,28 @@
         <v>199</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="W30">
         <v>7</v>
@@ -5037,7 +5406,7 @@
         <v>5730</v>
       </c>
       <c r="AE30" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AF30">
         <v>1</v>
@@ -5066,10 +5435,19 @@
       <c r="AN30">
         <v>67.28</v>
       </c>
+      <c r="AO30" t="s">
+        <v>370</v>
+      </c>
+      <c r="AP30">
+        <v>35.89904573561591</v>
+      </c>
+      <c r="AQ30">
+        <v>14.51464694982352</v>
+      </c>
     </row>
-    <row r="31" spans="1:40">
+    <row r="31" spans="1:43">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B31">
         <v>-2.1</v>
@@ -5111,28 +5489,28 @@
         <v>315</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="W31">
         <v>48</v>
@@ -5159,7 +5537,7 @@
         <v>634293</v>
       </c>
       <c r="AE31" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AF31">
         <v>24</v>
@@ -5188,10 +5566,19 @@
       <c r="AN31">
         <v>111.53</v>
       </c>
+      <c r="AO31" t="s">
+        <v>371</v>
+      </c>
+      <c r="AP31">
+        <v>59.91238549365089</v>
+      </c>
+      <c r="AQ31">
+        <v>10.7491253941196</v>
+      </c>
     </row>
-    <row r="32" spans="1:40">
+    <row r="32" spans="1:43">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B32">
         <v>1.1</v>
@@ -5233,28 +5620,28 @@
         <v>108</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="W32">
         <v>93</v>
@@ -5281,7 +5668,7 @@
         <v>1765000</v>
       </c>
       <c r="AE32" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AF32">
         <v>153</v>
@@ -5310,10 +5697,19 @@
       <c r="AN32">
         <v>32.72</v>
       </c>
+      <c r="AO32" t="s">
+        <v>372</v>
+      </c>
+      <c r="AP32">
+        <v>52.24486263090439</v>
+      </c>
+      <c r="AQ32">
+        <v>21.01611488487888</v>
+      </c>
     </row>
-    <row r="33" spans="1:40">
+    <row r="33" spans="1:43">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -5355,28 +5751,28 @@
         <v>189</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="W33">
         <v>103</v>
@@ -5403,7 +5799,7 @@
         <v>1830000</v>
       </c>
       <c r="AE33" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AF33">
         <v>62</v>
@@ -5432,10 +5828,19 @@
       <c r="AN33">
         <v>32.26</v>
       </c>
+      <c r="AO33" t="s">
+        <v>373</v>
+      </c>
+      <c r="AP33">
+        <v>44.42906351875826</v>
+      </c>
+      <c r="AQ33">
+        <v>26.09871712196997</v>
+      </c>
     </row>
-    <row r="34" spans="1:40">
+    <row r="34" spans="1:43">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B34">
         <v>2.3</v>
@@ -5477,28 +5882,28 @@
         <v>378</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="W34">
         <v>129</v>
@@ -5525,7 +5930,7 @@
         <v>1374000</v>
       </c>
       <c r="AE34" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AF34">
         <v>84</v>
@@ -5553,6 +5958,15 @@
       </c>
       <c r="AN34">
         <v>27.84</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>374</v>
+      </c>
+      <c r="AP34">
+        <v>44.8090337390697</v>
+      </c>
+      <c r="AQ34">
+        <v>20.46228975750678</v>
       </c>
     </row>
   </sheetData>

--- a/final.xlsx
+++ b/final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="409">
   <si>
     <t>ciudades</t>
   </si>
@@ -103,6 +103,9 @@
     <t>naturaleza</t>
   </si>
   <si>
+    <t>palabras</t>
+  </si>
+  <si>
     <t>poblacion</t>
   </si>
   <si>
@@ -1034,6 +1037,105 @@
   </si>
   <si>
     <t>https://www.tripadvisor.es/Attractions-g294472-Activities-c57-Belgrade.html</t>
+  </si>
+  <si>
+    <t>{'Skanderbeg Square': 8, 'Et`hem Bey Mosque': 12, 'Orthodox Autocephalous Church of Albania': 16, 'Skanderbeg Statue': 1, 'Clock Tower': 19, 'Rruga Murat Toptani': 11, "Tanners' Bridge": 10, 'Peace Bell': 9, 'Kapllan Pasha’s Tomb': 6, 'Saint Paul Cathedral': 11, 'Enver Hoxha Pyramid': 1, 'Marie': 16, 'Great mosque of Tirana': 12, 'Unknown Partisan Monument': 7, 'Fortress of Justinian': 3, 'Postbllok - Checkpoint Monument': 1, 'Bektashi World Centre': 16, 'TID Tower': 17, 'Reja "The Cloud"': 1, 'Blloku': 9, 'Polytechnic University of Tirana': 3, 'Qemal Stafa Stadium': 18, 'Friendship Monument': 5, 'Independence Monument': 9, 'Fan Noli statue': 10, 'Mosaic of Tirana': 2, 'Baitul Awwal Mosque': 19, 'Xhura Mosque': 17, 'Pomnik Fryderyka Chopina': 15, 'Selman Stermasi Stadium': 4}</t>
+  </si>
+  <si>
+    <t>{'Palacio de Schönbrunn': 9, 'Historic Center of Vienna': 12, 'Catedral de San Esteban': 10, 'Belvedere Museum': 1, 'Schonbrunner Gardens': 4, 'Rathaus': 2, 'State Hall of the Austrian National Library': 17, 'Peterskirche': 8, 'Plaza de San Esteban (Stephansplatz)': 14, 'Rathausplatz': 5, 'Cementerio Central (Zentralfriedhof)': 9, 'Volksgarten': 17, 'Ringstrasse': 13, 'Museo KunstHausWien': 17, 'Hundertwasserhaus': 11, 'Casa de la musica': 17, 'Graben and Kohlmarkt': 20, 'Kahlenberg': 3, 'Karlskirche': 5, 'Imperial Crypt': 16, 'Church of the Jesuits': 19, 'Kirche am Steinhof': 3, 'Danube Tower': 8, 'Votivkirche': 13, 'Michaelerplatz': 20, 'Österreichisches Parlament': 9, 'Maria Theresia Denkmal': 15, 'MAK - Austrian Museum of Applied Arts/Contemporary Art': 1, 'Wiener Riesenrad': 16, 'Mariahilfer Strasse': 6}</t>
+  </si>
+  <si>
+    <t>{'Church of Saints Simon and Helena': 3, 'Island of Tears': 1, 'Victory Square': 15, 'Upper City': 10, 'Monument to Fallen Jewish People on March 2, 1942': 17, 'Minsk-Arena Complex': 20, 'Holy Spirit Cathedral': 11, 'Minsk Gates': 19, 'Independence Square, Minsk': 5, 'Svislach River Embankment': 5, 'Loshitskiy Park': 18, 'Central Botanical Garden of the National Academy of Sciences of Belarus': 3, 'Minsk Railway station': 9, 'Trinity Hill': 20, 'Archcathedral Holy Name of the Blessed Virgin Mary': 13, 'Minsk City Hall': 11, 'Sculpture': 2, 'Church of All Saints': 5, 'Fountain of Independence': 19, 'Zero Kilometr of Belarus': 11, 'Observation Deck of National Library of Belarus': 9, 'Graffiti Street': 9, 'Saint Elisabeth Convent': 12, 'Crying Guardian Angel': 20, "Paul's Cathedral": 6, 'Liberty Square': 12, 'Gallery Slavutyya Maistry': 5, 'Mary Magdalene': 12, 'Chizhovka Arena': 2, 'Oktyabrskaya Square': 12}</t>
+  </si>
+  <si>
+    <t>{'Iglesia de Alexander Nevski': 8, 'Vitosha Boulevard': 18, 'Iglesia Rusa de San Nicolás': 19, 'Iglesia de Boyana': 8, 'The Rotunda Church of St George': 3, 'Saint Sofia Church': 12, 'St Nedelya Church': 12, 'Sofia Synagogue': 10, 'National Palace of Culture Congress Centre': 4, 'Amphitheatre of Serdica': 20, 'Former Bulgarian Communist Party Headquarters': 10, 'Banya Bashi Mosque': 12, 'Church of St Petka of the Saddlers': 2, 'Sofia University Saint Kliment Ohridski': 3, 'Statue of Tsar Alexander II': 11, 'Sveti Sedmochislenitsi Church': 14, 'The Bells (Kambanite)': 16, 'Soviet Army Monument': 19, 'Monument to the Deity All-Holy Sofia': 12, 'Statue of Slaveikovs': 13, 'Slaveikov Square': 5, 'Dragalevtsi Monastery': 18, 'Ancient Serdica Archaeological Complex': 2, 'The Presidency Building': 11, 'Monument to the Unknown Warrior': 20, 'National Assembly of the Republic of Bulgaria': 16, 'Boyana Village': 1, 'Saint Nikolai Sofiyski': 11, 'Snail Home': 7, 'Mineral water springs': 14}</t>
+  </si>
+  <si>
+    <t>{'Nyhavn': 2, 'Rosenborg Castle': 7, "Our Saviour's Church": 14, 'Rundetårn': 12, 'Museo Nacional': 14, 'Palacio de Christiansborg': 5, 'Copenhagen Opera House': 16, 'Palacio de Amalienborg': 19, 'Kastellet': 13, 'Frederiks Kirke (Marmorkirken)': 5, 'Strøget': 8, 'The Little Mermaid': 10, 'Copenhagen City Hall': 14, 'Gefionspringvandet': 18, 'Grundtvig Church (Grundtvigs Kirke)': 9, 'Frederiksberg Slot': 15, 'Christiania': 13, 'Assistens Cemetery': 19, 'Copenhagen Central Station': 16, 'Thorvaldsens Museum': 4, 'Visit Carlsberg Brand Store': 12, 'Church of Our Lady - Copenhagen Cathedral': 6, 'Krigsmuseet': 14, "Alban's Church": 6, 'Islands Brygge': 3, 'Copenhagen Stock Exchange': 8, 'Gråbrødretorv': 13, 'Andersen Statue': 16, "Changing of her Majesty's guard at Amalienborg Castle": 16, 'Radhuspladsen': 16}</t>
+  </si>
+  <si>
+    <t>{'Ljubljana Old Town': 17, 'Puente Triple': 13, 'Plaza Preseren': 5, 'Catedral de San Nicolás': 2, 'Puente de los Dragones': 20, 'The Ljubljana Castle': 17, 'Cankarjevo Nabrežje': 20, 'Plecnik House': 7, 'Metelkova': 17, 'Franciscan Church (Frančiškanska cerkev)': 19, 'Vodnik Square (Vodnikov trg)': 8, 'Cyril and Methodius Orthodox Church': 13, 'Skyscraper (Nebotičnik)': 15, 'Old Square (Stari trg)': 18, 'Gornji Trg': 19, 'Mestni Trg': 1, 'Town Hall (Magistrat)': 7, "Shoemaker's Bridge (Cevljarski Most)": 20, "Butcher's Bridge": 17, 'Žale Cemetery': 14, 'City Museum of Ljubljana': 6, 'Congress Square (Kongresni trg)': 13, 'Fountain of Three Carniolan Rivers (Vodnjak treh kranjskih rek)': 11, 'Cooperative Business Bank': 19, 'Slovenian Philharmonic Hall (Slovenska Filharmonija)': 19, 'Seminary Palace and Library': 7, 'Michael': 19, 'Hauptmann House': 13, 'Ursuline Church of the Holy Trinity': 12, 'Cyril Methodius Square (Ciril-Metodov trg)': 4}</t>
+  </si>
+  <si>
+    <t>{'Tallinn Old Town': 19, 'Colina Toompea': 18, 'Tallinna Raekoja Plats': 16, 'Catedral de Alejandro Nevski': 4, 'Iglesia Oleviste': 4, 'Ayuntamiento': 7, 'Tallinn TV Tower': 1, 'Tallinn Town Hall': 10, 'Kumu Art Museum': 18, "Catherine's Passage": 17, 'Viewing Point Kohtuotsa': 6, 'Pirita': 20, 'Puerta Viru': 8, 'Catedral de Santa María': 20, 'Patkuli Viewing Platform': 18, 'Long Street (Pikk tanav)': 16, 'Rotermann Quarter': 4, 'Kadriorg Palace': 7, 'Church of the Holy Spirit Puhavaimu Kirik': 19, 'Viru Square': 14, 'Fat Margaret (Paks Margareeta)': 12, 'Russalka': 11, 'Bridget (Pirita Klooster)': 10, 'Rataskaevu Street': 13, 'Tallinn Song Festival Grounds': 13, 'Tallinn Legends': 15, 'Castillo Toompea': 7, 'Long Boot (Pikk Jalg)': 3, 'Peter the Great House Museum': 13, "Nicholas' Orthodox Church": 18}</t>
+  </si>
+  <si>
+    <t>{'Torre Eiffel': 1, 'Museo del Louvre': 1, 'Catedral de Notre Dame': 6, 'Santa Capilla': 17, 'Palais Garnier': 11, 'Arco del Triunfo': 14, 'Basilique du Sacre-Coeur de Montmartre': 8, 'Le Marais': 2, 'Montmartre': 7, 'Puente Alexandre III': 1, 'Place des Vosges': 7, 'Champs-Elysees': 17, 'Ile Saint-Louis': 11, 'Père Lachaise Cemetery': 14, 'Saint-Germain-des-Pres': 1, 'Île de la Cité': 4, 'Latin Quarter': 16, 'Observatoire Panoramique de la Tour Montparnasse': 2, 'Panthéon': 8, 'Towers of Notre-Dame Cathedral': 19, 'Centre Pompidou': 11, 'The Paris Catacombs': 18, 'Église Saint-Étienne-du-Mont de Paris': 9, 'Chapelle Notre Dame de la Medaille Miraculeuse': 5, '1st Arrondissement': 9, 'Le Trocadero et son esplanade': 9, 'Luxembourg Palace': 16, 'Rue Montorgueil': 15, 'Hôtel de Ville': 6, 'La Madeleine': 16}</t>
+  </si>
+  <si>
+    <t>{'Acrópolis': 20, 'Partenón': 10, 'Plaka': 13, 'Mount Lycabettus': 15, 'Temple of Hephaestus': 9, 'Panathenaic Stadium': 15, 'Ágora': 4, 'Herod Atticus Odeon': 17, 'Erechtheion': 17, 'Philopappos Hill': 10, 'Anafiotika': 12, 'Monastiraki': 14, 'Temple of Athena Nike': 16, 'Temple of Olympian Zeus': 15, 'Tomb of the Unknown Soldier': 1, 'Theater of Dionysus': 11, 'Areopagus': 7, 'Plateia Syntagmatos': 1, 'Stoa of Attalos': 16, 'Church of Kapnikaréa': 6, 'Psirri': 2, 'Pnyx': 5, 'Parlamento (Vouli)': 11, 'Changing of the Guard Ceremony': 20, 'Arch of Hadrian': 13, 'Metropolitan Cathedral of Athens': 1, 'Ermou Street': 14, 'The Academy of Athens': 1, 'George': 14, 'Adrianou Street': 15}</t>
+  </si>
+  <si>
+    <t>{'Kilmainham Gaol': 6, 'Guinness Storehouse': 12, 'The Book of Kells and the Old Library Exhibition': 6, 'Cementerio de Glasnevin': 7, 'Trinity College': 16, 'Temple Bar': 15, '14 Henrietta Street': 18, 'Croke Park Stadium Tour &amp; GAA Museum': 10, "Saint Patrick's Cathedral": 20, 'Christ Church Cathedral': 4, 'Dublinia': 12, 'The Famine Sculptures': 7, 'Grafton Street': 1, 'Dublin Castle': 4, "Michan's Church": 20, 'Molly Malone Statue': 17, 'Merrion Square': 10, "Ha'penny Bridge": 20, 'Croke Park Stadium': 13, 'Shelbourne Park Greyhound Stadium': 14, "Audoen's Church": 2, 'Aviva Stadium': 9, "O'Connell Street": 9, 'Drimnagh Castle': 3, 'Casino Marino': 12, 'Farmleigh House and Estate': 5, 'Samuel Beckett Bridge': 19, 'Monument to Oscar Wilde': 7, 'The Custom House Visitor Centre': 3, 'Cliff Path Loop': 11}</t>
+  </si>
+  <si>
+    <t>{'Coliseo': 18, 'Pantheon': 2, 'Fontana di Trevi': 1, 'Piazza Navona': 3, 'Basilica di Santa Maria Maggiore': 16, 'Foro Romano': 17, 'Trastevere': 13, 'Roman Forum': 12, "Castillo de Sant'Angelo": 17, 'Monumento a Vittorio Emanuele II': 3, 'Villa Borghese': 7, 'Arcibasilica di San Giovanni in Laterano': 6, 'Centro Storico': 20, "Chiesa di Sant'Ignazio di Loyola": 15, 'Scalinata di Trinità Dei Monti': 1, 'San Pedro Encadenado (San Pietro in Vincoli)': 5, 'Iglesia de San Luis de los Franceses': 8, 'Fontana dei Quattro Fiumi': 16, 'Santa Maria in Trastevere': 10, 'Basílica de San Clemente': 13, 'Palazzo Doria Pamphilj': 9, 'Santa Maria della Vittoria': 11, 'Piazza Venezia': 8, 'Catacombs of Saint Callixtus': 7, 'Domus Aurea': 13, 'Basilica di Santa Maria degli Angeli e dei Martiri': 2, 'Terme di Caracalla': 14, 'Piazza del Popolo': 1, 'Welcome To Rome': 15, 'Plaza del Campidoglio': 6}</t>
+  </si>
+  <si>
+    <t>{'Vilnius Old Town': 4, '0': 2, 'Iglesia de San Pedro y San Pablo': 3, 'Iglesia de Santa Ana': 8, 'Puerta de la Aurora': 6, 'Uzupis': 19, 'Holy Spirit Orthodox Church': 11, 'Paneriai (Ponar)': 19, 'Vilnius Cathedral': 3, 'Vilnius University (Vilniaus Universitetas)': 6, 'Bernardine Church (Bernardinu Baznycia)': 17, 'Vingis Park': 13, "St John's church": 19, 'Vilnius Cathedral Square': 20, 'Vilnius TV Tower': 1, 'Castle Hill': 10, 'Theresa': 20, 'Bell Tower of Vilnius Cathedral': 17, 'Stebuklas': 15, 'Rasu Cemetery (Rasu kapines)': 14, 'Gediminas Avenue': 17, 'Casimir': 17, 'Monument to Zemach Shabad': 20, 'Uzupis Mermaid': 8, 'Presidential Palace': 20, 'Antakalnis Cemetery': 18, 'Uzupis Angel': 1, 'Artworks on Literatu str': 18, 'Vilnius Choral Synagogue': 14, 'Church of the Holy Spirit (Sventosios Dvasios Baznycia)': 13}</t>
+  </si>
+  <si>
+    <t>{'Old Bazaar, Skopje': 11, 'The Stone Bridge': 18, 'Macedonia Square': 2, 'Millennium Cross': 6, 'Memorial House of Mother Teresa': 8, 'Panteleimon': 7, 'Warrior on a Horse': 12, 'Holy Savior Church': 13, 'Mustafa Pasha Mosque': 10, 'Clement of Ohrid': 16, 'Skopje Art Bridge': 7, 'Daut Pasha Hamam': 6, 'Skopje Fortress Kale': 16, 'Phillip II of Macedon': 19, 'Fountain of the Mothers of Macedonia': 15, 'Skopje Eye Bridge': 3, 'Skopje Aqueduct': 2, 'Kapan Han': 3, 'Sultan Murad Mosque': 15, 'Statue Divers': 8, 'Museum City of Skopje': 5, 'Church of Saint Dimitrija': 5, "Memorial plaque of Mother Teresa's birth house": 2, 'Church of the Ascension of Jesus': 13, 'Stobi': 12, 'Fallen Heroes of Macedonia': 10, 'Porta Macedonia aka Gate Macedonia': 17, 'National Arena Philip II of Macedonia': 6, 'Mosque Iskhak-Bek': 5, 'Clock Tower Saat Kula': 11}</t>
+  </si>
+  <si>
+    <t>{'Victory Memorial and Eternal Flame': 4, 'Catedrala Nasterea Domnului': 8, 'Theodor Tiron Convent': 18, 'Stephen the Great Monument': 1, 'Sculpture of Lovers': 3, 'Triumphal Arch': 18, 'Afghan War Memorial To Sons of Motherland - Eternal Memory': 2, 'Dormition of the Theotokos': 12, 'Pedestrian Street': 2, 'Jewish Cemetery': 13, 'Chisinau Railway Station': 11, 'Orthodox Cathedral of the Transfiguration of the Saviour': 4, 'Sculpture of Skateboarders': 15, 'Monument to the Victims of Jewish Ghetto': 13, 'Nicholas': 14, 'Kishinev Jacobs Jewish Cultural Center': 17, 'Parliament of the Republic of Moldova': 8, 'Chisinau Mosque': 15, 'Metropolitan Cathedral': 10, 'Chisinau City Hall': 18, 'Synagogue Chabad Lubavitch': 8, 'Cathedral of Divine Providence': 9, "Mary's Armenian Apostolic Church": 19, 'Monument to the Heroes-Komsomol': 13, 'Mazarachi Church': 7, 'Monument to the Liberators of Chisinau from the Nazi Troops': 16, 'Monument to Sergey Lazo': 10, 'Memorial to Victims of Stalinist Repression': 6, 'Tekwill Technology Hub': 6, '1 Ban Monument': 5}</t>
+  </si>
+  <si>
+    <t>{'Jordaan': 3, 'Estación Central': 12, 'Barrio Rojo': 13, 'Museo Casa de Rembrandt': 6, 'La Plaza Dam': 9, "A'dam Lookout": 8, 'Museum Quarter': 9, 'Palacio Real': 11, 'Begijnhof': 17, 'Amsterdam Canal Ring': 6, 'Johan Cruyff Arena': 6, 'Sinagoga Portuguesa': 19, 'Las Nueve Calles': 14, 'El Amstel': 7, 'De Duif': 2, 'Plaza Leidseplein': 12, 'Rembrandtplein': 16, 'Ziggo Dome': 5, 'Museum Van Loon': 20, 'Willet-Holthuysen Museum': 19, 'Nicholas Basilica': 20, 'De Poezenboot': 2, 'De Hallen Amsterdam': 1, 'Westerkerk': 19, 'Brouwersgracht': 1, 'Haarlemmerstraat': 9, 'De Krijtberg - Sint Franciscus Xaveriuskerk': 3, 'Nieuwmarkt': 13, 'Museum Het Schip': 4, 'Magere Brug': 14}</t>
+  </si>
+  <si>
+    <t>{'Alfama': 14, 'Mosteiro dos Jerónimos': 3, 'Praca do Comercio (Terreiro do Paco)': 13, 'Barrio Alto': 19, 'Castillo de San Jorge': 3, 'Belem': 10, 'Miradouro da Senhora do Monte': 18, 'Chiado': 6, 'Padrao dos Descobrimentos': 7, 'Arco do Triunfo': 17, 'Igreja de São Roque': 6, '25 de Abril Bridge': 13, 'Estadio do Sport Lisboa e Benfica': 9, 'LX Factory': 9, 'La Locomotiva Tours': 20, 'Parque das Nacoes': 1, 'Vasco da Gama Bridge': 17, 'Miradouro da Graca (Sophia de Mello Breyner Andresen)': 12, 'Palacio de Ajuda': 3, 'Panteao Nacional': 16, 'Avenida da Liberdade': 10, 'Miradouro de Santa Luzia': 4, 'Rossio Square': 14, 'Santo Antonio de Lisboa': 4, 'Mosteiro De Sao Vicente De Fora': 18, 'Rua Augusta': 20, 'Santa Maria de Belem Church': 18, 'Vasco da Gama Shopping Center': 5, 'Palácio dos Marqueses de Fronteira': 20, 'Miradouro das Portas do Sol': 11}</t>
+  </si>
+  <si>
+    <t>{'Staromestske namesti': 11, 'Karlův Most': 10, 'Catedral de San Vito': 2, 'Prague Castle': 3, 'Staroměstská Radnice': 11, 'Lesser Town': 2, 'Hradčany': 11, 'Sinagoga Española': 4, 'Monte Petřín': 8, 'Iglesia de San Nicolás': 2, 'Palacio Lobkowicz': 19, 'Monumento Cultural Nacional Vysehrad': 5, 'Obecní Dům': 19, 'Church of Our Lady before Tyn': 13, 'National Memorial to the Heroes of the Heydrich Terror': 19, 'Franz Kafka Statue': 15, 'Petrin Tower': 11, 'Old Town Bridge Tower': 5, 'Kostel Panny Marie Vítězné a Pražské Jezulátko': 9, 'St Cyril and St Methodius Cathedral': 11, 'Prašná brána': 17, 'Rudolfinum': 17, 'The Vrtba Garden': 13, 'Wenceslas Square (Václavské náměstí)': 9, 'Waldstein Palace': 14, 'Loreta Praha': 10, 'Pinkas Synagogue, Jewish Museum in Prague': 3, 'Dancing House': 12, 'Convent of St Agnes of Bohemia - National Gallery Prague': 15, 'John Lennon Wall': 2}</t>
+  </si>
+  <si>
+    <t>{'Stockholm Old Town': 5, 'Ayuntamiento': 14, 'Djurgarden': 1, 'Palacio Real': 4, 'Monteliusvagen': 1, 'Södermalm': 17, 'Stortorget': 15, 'Catedral de Estocolmo': 19, 'Skogskyrkogården': 11, 'Galería Thiel': 17, 'Strandvagen': 4, 'Parliament Building (Riksdagshuset)': 18, 'Mirador Fjallgatan': 15, 'Ostermalm': 14, 'Riddarholm Church (Riddarholmskyrkan)': 16, 'Iglesia Alemana': 7, 'Globen Skyview': 1, 'Royal Dramatic Theater (Kungliga Dramatiska Teatern)': 15, 'Järnpojken': 10, 'Cirkus Arena': 1, 'Avicii Arena': 17, 'Kulturhuset': 15, 'Norrmalm': 17, 'S:ta Clara kyrka': 2, 'Judiska Församlingen I Stockholm': 15, 'Riddarhuset': 17, 'Tele2 Arena': 7, 'The Stockholm Concert Hall': 16, 'Katarina Hissen': 15, 'Vinterviken': 7}</t>
+  </si>
+  <si>
+    <t>{'Reichstag Building': 8, 'Puerta de Brandeburgo': 10, 'Memorial del Holocausto': 9, 'Memorial del Muro de Berlín': 2, 'East Side Gallery': 10, 'Friedrichstadt-Palast': 11, 'Museum Island': 5, 'Berliner Dom': 20, 'Gendarmenmarkt': 17, 'Fernsehturm de Berlín': 18, 'Filarmónica de Berlín': 1, 'Memorial Berlín Hohenschönhausen': 1, 'Kaiser Wilhelm Memorial Church': 18, 'Olympiastadion Berlin': 13, 'Victory Column (Siegessaule)': 3, 'Charlottenburg Palace': 3, 'Museo Histórico Alemán': 7, 'Potsdamer Platz': 16, 'Alexanderplatz': 19, 'Tempelhof Airport': 8, 'Die Hackeschen Hoefe': 7, 'Estación Central de Berlín': 3, 'Berlín-Mitte': 2, 'Checkpoint Charlie': 13, 'Haus der Wannsee-Konferenz': 10, 'Kurfürstendamm': 18, 'Panoramapunkt': 18, 'Prenzlauer Berg': 13, 'Gleis 17, Grunewald': 17, 'Kreuzberg': 17}</t>
+  </si>
+  <si>
+    <t>{'Gran Plaza': 5, 'Les Galeries Royales Saint-Hubert': 19, 'Atomium': 20, 'Catedral de San Miguel y Santa Gúdula': 18, 'Town Hall (Hôtel de Ville)': 11, 'Parc du Cinquantenaire': 1, 'Guild Houses': 20, 'Notre Dame du Sablon': 9, 'Parlamentarium: Centro de visitas del Parlamento Europeo': 15, 'Manneken Pis': 13, 'Mont des Arts': 3, 'Serres Royales De Laeken': 1, 'Royal Palace (Palais Royal)': 17, 'Bois de la Cambre': 13, 'National Basilica of the Sacred Heart': 10, 'Place du Grand Sablon': 14, 'Catherine': 11, 'Belgian Comic Strip Center': 5, 'European Parliament Hemicycle (free visits)': 7, 'Gery': 13, 'Tintin Mural Painting': 1, 'Justice Palace (Palais de Justice)': 7, 'Coudenberg Palace': 16, 'Porte de Hal': 9, 'Le Botanique': 13, 'Lower Town': 12, 'La Bourse de Bruxelles': 11, 'Avenue Louise': 12, 'Jeanneke Pis': 14, 'Place Royale': 12}</t>
+  </si>
+  <si>
+    <t>{'Sarajevo War Tunnel': 5, 'Bascarsija': 2, 'Sarajevo Olympic Bobsleigh and Luge Track': 4, 'Sarajevo City Hall': 9, 'Gazi Husrev-beg Mosque': 20, 'The Yellow Fortress': 9, 'Avaz Twist Tower': 13, 'Katedrala Srca Isusova': 3, 'Sebilj Brunnen (Fountain)': 9, 'Latin Bridge': 14, 'Ferhadija Pedestrian Street': 1, 'Church of the Holy Archangels Michael and Gabriel in Sarajevo': 13, 'Sarajevo Memorial for Children Killed during Siege': 3, 'Eternal Flame': 9, 'Sniper Alley': 18, 'Pijaca Markale': 10, 'Serbian Orthodox Cathedral': 17, 'Alifakovac Cemetery': 17, 'Gazi Husrev Begova Medresa': 9, 'TasliHan': 4, 'Old Sarajevo Clock Tower': 14, 'Ashkenazi Synagogue': 9, 'Romeo and Juliet Bridge': 2, 'Central Post Office': 18, 'Bridge Festina Lente': 15, 'The Academy of Fine Arts': 4, "Goat's Bridge": 15, "Emperor's Mosque": 2, 'Alipasina Mosque': 14, 'Bosniak Institute': 20}</t>
+  </si>
+  <si>
+    <t>{'Tkalčićeva Street': 15, 'Upper Town (Gornji Grad)': 7, 'Iglesia de San Marcos': 11, 'Cementerio Mirogoj': 13, 'Cathedral of the Assumption': 13, 'Ban Josip Jelačić Square': 8, 'Croatian National Theatre in Zagreb': 8, 'Lotrščak Tower': 2, 'Lower Town': 7, 'Funicular Railway': 7, 'King Tomislav Square': 20, 'Puerta de Piedra': 2, 'Ban Josip Jelacic Monument': 3, 'Radićeva': 14, 'Holy Mary Monument': 18, 'Strossmayer Promenade': 6, 'Ilica': 7, 'Tunel Gric': 12, 'The Well of Life': 20, 'Republic of Croatia Square / Trg Republike Hrvatske': 19, 'Zagreb Cathedral': 12, 'Nikola Tesla Statue': 7, 'Medvedgrad Visitor Center': 20, 'Catherine': 16, "Mark's Square": 14, 'Square of Petar Preradovic': 7, 'Zagreb Orthodox Cathedral': 16, 'Saint George Statue': 13, 'King Tomislav Statue': 13, 'Mandusevac Fountain': 20}</t>
+  </si>
+  <si>
+    <t>{'Casco antiguo': 15, 'Castillo Devin': 10, 'Cumil': 4, 'Modry Kostol': 4, 'Bratislava Castle': 15, 'Slavin': 14, 'UFO Observation Deck': 18, 'Plaza Mayor': 7, 'Ayuntamiento Viejo': 13, "Michael's Tower &amp; Street": 10, 'Puerta de San Miguel': 3, "Martin's Cathedral (Dom svateho Martina)": 7, 'Hviezdoslavovo Namestie': 11, 'Schone Naci Statue': 15, 'Slovak Philharmonic': 3, 'Napoleon’s Army Soldier Statue': 14, 'The Grassalkovich palace - Presidential palace': 13, 'New Bridge (Novy Most)': 7, "Primates' Palace (Primacialny palac)": 11, 'Statue of Hans Christian Andersen': 6, 'Kapitulska Street': 3, 'Chatam Sofer Memorial': 10, 'Ondrej Nepela Arena': 5, 'George and the Dragon': 9, 'Maximilian´s Fountain': 1, 'Stary most': 14, 'Building of Slovak Radio': 18, 'Franciscan Church and Monastery': 9, 'The old Slovak National Theater': 2, 'Apollo Bridge': 13}</t>
+  </si>
+  <si>
+    <t>{'Fortaleza de Suomenlinna': 20, 'Temppeliaukion Church': 3, 'Catedral Luterana': 17, 'Catedral Ortodoxa Uspenski': 9, 'Old Market Hall': 11, 'Museo al aire libre de Seurasaari': 5, 'Kamppi Chapel of Silence': 11, 'The Esplanadi Park': 14, 'Plaza del Senado': 18, 'Helsingin Päärautatieasema': 7, 'The National Library of Finland': 6, 'Hakaniemi Market': 19, 'Kauppatori': 4, 'Museo Mannerheim': 19, 'Katajanokka': 9, 'Johannes Church': 20, 'The Aalto House': 15, 'Hakaniemi Market Hall': 7, 'Havis Amanda': 20, 'Toolo Bay (Toolonlahti)': 20, 'Olympic Stadium (Olympiastadion)': 10, 'Sibelius Monument': 9, 'Hietaniemi Cemetery': 1, 'SkyWheel Helsinki': 15, 'Talvipuutarha': 8, 'Kallio Church': 2, 'Hartwall Arena': 8, 'Helsinki University Library': 20, 'University of Helsinki (Helsingin Yliopisto)': 16, 'Design District': 8}</t>
+  </si>
+  <si>
+    <t>{'Parlamento': 1, "Fisherman's Bastion": 15, 'Basílica de San Esteban': 3, 'Zapatos en el Danubio': 5, 'Matthias Church': 9, "Heroes' Square": 8, 'Budai Vár': 16, 'Varhegy': 5, 'Puente de las Cadenas': 2, 'Colina y Estatua Gellért': 1, 'Hungarian State Opera House (Magyar Allami Operahaz)': 7, '3d Gallery Budapest': 6, 'Vajdahunyad Castle (Vajdahunyadvar)': 1, 'Gran Sinagoga': 6, 'Gozsdu Udvar': 8, 'Puente de la Libertad': 16, 'Citadel': 1, 'Music Fountain': 10, 'Vaci Street': 19, 'Andrassy Avenue': 16, 'Museo Nacional Húngaro': 18, 'New York Palace': 16, 'Statue of St Stephen': 15, 'Plaza Vorosmarty (Vorosmarty ter)': 13, 'Gresham Palace': 4, "Anonymus Szobor (Anonymous' Statue)": 18, 'Bagni Széchenyi': 10, 'Kossuth Lajos Square': 18, 'Korzo - Danube Embankment (Dunakorzó)': 14, 'Castle Garden': 13}</t>
+  </si>
+  <si>
+    <t>{'Iglesia de Hallgrímur (Hallgrimskirkja)': 3, 'Perlan': 1, 'Harpa Reykjavik Concert Hall and Conference Centre': 11, 'Sun Voyager': 7, 'Reykjavík 871±2': 16, 'Laugavegur': 18, 'Árbær Open Air Museum': 8, 'Museo Einar Jonsson': 6, 'Videy Island': 16, 'Grotta Lighthouse': 9, 'Reykjavík Art Museum Ásmundarsafn': 10, 'The Statue of Leif Eiriksson': 3, 'Geothermal Area Krysuvik': 5, 'Reykjavik City Hall': 10, 'Cemetery Holavallagardur': 6, 'Domkirkjan': 9, 'Bjarteyjarsandur': 17, 'Hofdi House': 6, 'Imagine Peace Tower': 2, 'Thufa': 9, 'Parliament House (Althingishus)': 4, 'The Nordic House': 17, 'Sculpture and Shore Walk': 18, 'Bárður Snæfellsás': 15, 'Thorsmork': 19, 'Arnarholl Statue': 11, 'Christ The King Cathedral': 1, 'Skolavordustigur': 19, 'Hannesarholt': 10, 'Háteigskirkja Church': 5}</t>
+  </si>
+  <si>
+    <t>{'Old City Riga (Vecriga)': 16, 'Riga Town Hall Square': 13, 'House Of The Black Heads': 20, 'Alberta Iela': 18, "View of Riga from St Peter's Church Tower": 19, 'Freedom Monument': 19, 'Latvian Ethnographic Open Air Museum': 1, 'Jugenda Stila Nami': 10, 'Riga Cathedral': 4, 'Panorama Riga Observation Deck': 11, 'Nativity of Christ Cathedral': 11, 'Vermanes Garden': 17, 'Jauniela': 5, "Peter's Church": 3, 'Cat House': 8, 'Bremen Town Musicians': 14, 'Livu Square': 13, 'Rumbula Forest Memorial': 13, 'Swedish Gate (Zviedru Varti)': 20, 'Arena Riga': 18, "John's Church": 16, 'Riga Radio and TV Tower': 11, 'Bikernieki Memorial': 20, 'The House that was Built in 1903': 2, 'Latvian National Theater': 1, 'Sculpture The Ghost': 2, 'Temple of the Holy Prince Alexander Nevskiy': 10, 'Small Guild of Riga': 13, 'Gertrude Old Church': 19, 'Riga Synagogue': 14}</t>
+  </si>
+  <si>
+    <t>{'Vianden Castle': 16, 'Le Chemin de la Corniche': 1, 'Luxembourg American Cemetery Memorial': 8, 'Cathédrale Notre-Dame': 7, 'Grund': 3, 'Pfaffenthal Lift': 4, 'MNHM National Museum of Military History': 14, 'Casemates du Bock': 10, 'Grand Ducal Palace': 13, 'Wenzel Circular Walk': 2, 'Pont Adolphe': 15, "Place d'Armes": 12, 'Viaduc (Passerelle)': 12, 'Mudam Luxembourg Musée d’Art Moderne': 6, 'Bourscheid Castle': 13, 'Place de la Constitution': 10, 'Abbey of Echternach': 5, '': 18, 'Holy Ghost Citadel': 1, 'Beaufort Castles': 14, 'Rockhal': 3, 'Chateau de Clervaux': 18, 'Abbaye Saint-Maurice de Clervaux': 20, 'Blast Furnace Belval': 6, "Monument du Souvenir - 'Gëlle Fra'": 17, 'Larochette Castle': 10, "Saint Michel's Church": 3, 'Chateau Esch-sur-Sûre': 5, 'Monument National de la Solidarite': 3, 'Hollow Tooth': 1}</t>
+  </si>
+  <si>
+    <t>{'Concatedral de San Juan': 14, 'Lascaris War Rooms': 19, 'Fort St Elmo - National War Museum': 15, 'Casa Rocca Piccola': 8, 'Saluting Battery': 2, 'Valletta Waterfront': 10, 'War HQ Tunnel': 4, 'Three Cities': 13, 'Barrakka Lift': 11, 'Iglesia del Naufragio de San Pablo': 1, 'Strait Street': 2, 'Triton Fountain': 13, "Grandmaster's Palace": 5, 'Valletta City Gate': 1, 'Shrine of Our Lady of Mount Carmel': 20, 'Siege Bell War Memorial': 5, "Paul's Anglican Pro-Cathedral": 10, "Il-Berga ta' Kastilja": 14, 'St George Square': 19, 'Victoria Gate': 5, 'Our Lady of Victories Church': 18, 'The New Parliament': 10, "Francis' Church Valletta": 7, 'Pjazza Teatru Rjal': 20, 'Reliving The Sacra Infermeria': 4, 'Mediterranean Conference Centre': 2, 'St Augustine Church &amp; Priory': 6, 'Catherine of Italy': 4, "Auberge d'Italie": 7, 'Independence Monument': 2}</t>
+  </si>
+  <si>
+    <t>{'Museo del Pueblo Noruego': 19, 'Castillo y Fortaleza de Akershus': 1, 'Ayuntamiento de Oslo': 8, 'El Palacio Real': 2, 'Karl Johans gate': 19, 'Oslomarka': 14, 'Fortaleza de Oscarborg': 11, 'Grünerløkka': 10, 'Drobak': 2, "Oslo's Harbour Promenade": 8, 'The Norwegian Parliament': 15, 'Emanuel Vigeland Museum': 11, 'juli-senteret': 3, 'Oslo Cathedral (Oslo Domkirke)': 20, 'Tjuvholmen Sculpture Park': 8, 'Tiger Sculpture': 4, 'Ostbanehallen': 12, 'Barcode Oslo': 10, 'Waterfall at Molla': 7, 'The Bergen Railway': 10, 'Tjuvholmen Neighbourhood': 6, 'Oslo Spektrum': 5, 'The Viking Planet Oslo': 8, 'Old Aker Church': 3, 'She Lies': 19, 'Bogstad Gard': 20, 'Vulkan Neighbourhood': 11, 'Street Art at Ingens gate': 14, 'Oscarshall': 2, 'Sagene Church': 10}</t>
+  </si>
+  <si>
+    <t>{'Old Town': 3, 'Rynek Starego Miasta': 12, 'Castle Square (Plac Zamkowy)': 20, 'Palace of Culture and Science': 15, 'Zamek Królewski w Warszawie - Muzeum': 17, 'Nowy Swiat': 2, 'Krakowskie Przedmiescie': 10, 'Monument to the Warsaw Uprising Fighters': 10, 'Palace on the Island': 19, 'Chopin Monument': 19, 'Pomnik Bohaterów Getta': 20, 'Hala Koszyki': 1, 'Grób Nieznanego Żołnierza': 16, 'Viewing Terrace': 5, 'PGE National Stadium': 10, "Anne's Church (Kosciol Swietej Anny)": 15, 'Warsaw Barbican (Barbakan Warszawski)': 12, 'Jewish Cemetery (Cmentarz Zydowski)': 5, 'Statue of the Little Insurgent': 11, 'Cmentarz Wojskowy na Powazkach': 4, 'Multimedia Fountain Park': 5, 'Warsaw Mermaid': 5, 'Holy Cross Church (Kosciol Swietego Krzyza)': 1, 'Warsaw Ghetto': 5, 'Legia Warsaw Municipal Stadium of Marshal Jozef Pilsudski': 20, 'Fragment of Ghetto Wall': 11, "King Sigismund's Column (Kolumna Zygmunta)": 19, 'John the Baptist': 15, 'University of Warsaw (Uniwersytet Warszawski)': 11, 'Fabryka Norblina': 5}</t>
+  </si>
+  <si>
+    <t>{'Iglesia Stavropoleos': 4, 'Muzeul Naţional al Satului "Dimitrie Gusti"': 8, 'Palace of Parliament': 11, 'Ateneo Romano': 15, 'Old Town': 8, 'Lipscani': 18, 'Piața Unirii': 4, "Manuc's Inn (Hanul lui Manuc)": 13, 'Catedrala Patriarhală': 7, 'Carol Park': 16, 'Calea Victoriei': 17, 'Piața Revoluției': 9, 'Triumph Arch (Arcul de Triumf)': 7, 'Palatul CEC': 2, 'National Theatre Ion Luca Caragiale (Teatrul Național Ion Luca Caragiale)': 1, 'Biserica Sfântul Gheorghe Nou': 7, 'Biserica Sfântul Anton - Curtea Veche': 2, 'Muzeul Colecțiilor de Artă': 14, 'National Arena Stadium Bucharest': 11, 'Nicolae': 18, 'Cercul Militar Național (CCA)': 15, 'The Choral Temple': 3, 'Bellu Cemetery (Cimitirul Șerban Vodă-Bellu)': 14, 'Bucharest Municipal Museum': 12, 'Biserica Kretzulescu': 18, 'Mănăstirea Antim': 7, 'Colțea Hospital (Spitalul Colțea)': 11, 'Great Synagogue': 7, 'Macca Villacrosse Passage': 12, 'Radu Vodă Monastery (Mănăstirea Radu Vodă)': 5}</t>
+  </si>
+  <si>
+    <t>{'The Belgrade Fortress': 4, 'Knez Mihailova': 13, 'Sava Temple': 16, 'Skadarlija': 12, 'Kalemegdan Park and Belgrade Fortress': 4, "Saint Petka's Chapel": 11, 'The Millenary Monument': 2, 'Church of the Holy Mother of God': 7, 'Zemunski kej': 4, 'Crkva Svetog Marka': 12, 'The National Assembly': 4, 'Avala Tower': 9, 'Residence of Princess Ljubica (Konak Kneginje Ljubice': 10, "Michael's Cathedral": 4, 'Red Star Belgrade Stadium - Marakana': 7, 'Trg Republike': 1, 'Sava Bridge': 6, 'Dorcol': 8, 'Public Aquarium and Tropicarium Belgrade': 6, 'Kombank Arena': 5, 'Royal Palace': 1, 'Crkva Svetog Oca Nikolaja': 6, 'Nebojsa Tower': 14, 'Bayraklee mosque (Bajrakli džamija)': 18, 'Patriarchate of the Serbian Orthodox Church': 3, 'Partizan Stadium': 1, 'Terazije Fountain': 19, 'White Palace': 14, 'Tresije': 13, 'Grocka': 7}</t>
   </si>
   <si>
     <t>pequeña</t>
@@ -1509,13 +1611,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ34"/>
+  <dimension ref="A1:AR34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:44">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1645,10 +1747,13 @@
       <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:44">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>5.7</v>
@@ -1690,28 +1795,28 @@
         <v>196</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="W2">
         <v>57</v>
@@ -1734,52 +1839,55 @@
       <c r="AC2">
         <v>7</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="s">
+        <v>341</v>
+      </c>
+      <c r="AE2">
         <v>494000</v>
       </c>
-      <c r="AE2" t="s">
-        <v>340</v>
-      </c>
-      <c r="AF2">
+      <c r="AF2" t="s">
+        <v>374</v>
+      </c>
+      <c r="AG2">
         <v>34</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>32</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>27</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>316</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>36.17</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>8.210000000000001</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>22.74</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>28.59</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>29.34</v>
       </c>
-      <c r="AO2" t="s">
-        <v>342</v>
-      </c>
-      <c r="AP2">
+      <c r="AP2" t="s">
+        <v>376</v>
+      </c>
+      <c r="AQ2">
         <v>41.33895239129471</v>
       </c>
-      <c r="AQ2">
+      <c r="AR2">
         <v>19.82159729288747</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:44">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>2.8</v>
@@ -1821,28 +1929,28 @@
         <v>155</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="W3">
         <v>119</v>
@@ -1865,52 +1973,55 @@
       <c r="AC3">
         <v>48</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" t="s">
+        <v>342</v>
+      </c>
+      <c r="AE3">
         <v>1897000</v>
       </c>
-      <c r="AE3" t="s">
-        <v>341</v>
-      </c>
-      <c r="AF3">
+      <c r="AF3" t="s">
+        <v>375</v>
+      </c>
+      <c r="AG3">
         <v>185</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>116</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>472</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>523</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>71.79000000000001</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>27.63</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>50.58</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>65.63</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>70.08</v>
       </c>
-      <c r="AO3" t="s">
-        <v>343</v>
-      </c>
-      <c r="AP3">
+      <c r="AP3" t="s">
+        <v>377</v>
+      </c>
+      <c r="AQ3">
         <v>48.22205734167154</v>
       </c>
-      <c r="AQ3">
+      <c r="AR3">
         <v>16.41095899696948</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:44">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>-2.5</v>
@@ -1952,28 +2063,28 @@
         <v>1943</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="W4">
         <v>36</v>
@@ -1996,52 +2107,55 @@
       <c r="AC4">
         <v>17</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE4">
         <v>1975000</v>
       </c>
-      <c r="AE4" t="s">
-        <v>341</v>
-      </c>
-      <c r="AF4">
+      <c r="AF4" t="s">
+        <v>375</v>
+      </c>
+      <c r="AG4">
         <v>71</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>78</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>65</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>124</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>33.12</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>9.960000000000001</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>22</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>27.77</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>35.98</v>
       </c>
-      <c r="AO4" t="s">
-        <v>344</v>
-      </c>
-      <c r="AP4">
+      <c r="AP4" t="s">
+        <v>378</v>
+      </c>
+      <c r="AQ4">
         <v>53.88997952019282</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
         <v>27.54664671006768</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:44">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>-0.2</v>
@@ -2083,28 +2197,28 @@
         <v>233</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="W5">
         <v>106</v>
@@ -2127,52 +2241,55 @@
       <c r="AC5">
         <v>26</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE5">
         <v>1236000</v>
       </c>
-      <c r="AE5" t="s">
-        <v>341</v>
-      </c>
-      <c r="AF5">
+      <c r="AF5" t="s">
+        <v>375</v>
+      </c>
+      <c r="AG5">
         <v>51</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>74</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>57</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>288</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>37.17</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>9.15</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>23.72</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>31.15</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>29.86</v>
       </c>
-      <c r="AO5" t="s">
-        <v>345</v>
-      </c>
-      <c r="AP5">
+      <c r="AP5" t="s">
+        <v>379</v>
+      </c>
+      <c r="AQ5">
         <v>42.69686077387406</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <v>23.31226414121231</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:44">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -2214,28 +2331,28 @@
         <v>109</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="W6">
         <v>125</v>
@@ -2258,52 +2375,55 @@
       <c r="AC6">
         <v>46</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" t="s">
+        <v>345</v>
+      </c>
+      <c r="AE6">
         <v>602481</v>
       </c>
-      <c r="AE6" t="s">
-        <v>340</v>
-      </c>
-      <c r="AF6">
+      <c r="AF6" t="s">
+        <v>374</v>
+      </c>
+      <c r="AG6">
         <v>66</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>98</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>239</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>282</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>81.38</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>32.91</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>58.11</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>63.62</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>95.14</v>
       </c>
-      <c r="AO6" t="s">
-        <v>346</v>
-      </c>
-      <c r="AP6">
+      <c r="AP6" t="s">
+        <v>380</v>
+      </c>
+      <c r="AQ6">
         <v>55.68272026223077</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <v>12.58092968104852</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:44">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7">
         <v>-1.5</v>
@@ -2345,28 +2465,28 @@
         <v>230</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="W7">
         <v>54</v>
@@ -2389,52 +2509,55 @@
       <c r="AC7">
         <v>10</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" t="s">
+        <v>346</v>
+      </c>
+      <c r="AE7">
         <v>279631</v>
       </c>
-      <c r="AE7" t="s">
-        <v>340</v>
-      </c>
-      <c r="AF7">
+      <c r="AF7" t="s">
+        <v>374</v>
+      </c>
+      <c r="AG7">
         <v>16</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>20</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>44</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>93</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>52.51</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>15.36</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>34.67</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>43.27</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>43.83</v>
       </c>
-      <c r="AO7" t="s">
-        <v>347</v>
-      </c>
-      <c r="AP7">
+      <c r="AP7" t="s">
+        <v>381</v>
+      </c>
+      <c r="AQ7">
         <v>46.06889019742815</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <v>14.50737084091923</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:44">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8">
         <v>-2.5</v>
@@ -2476,28 +2599,28 @@
         <v>375</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="W8">
         <v>52</v>
@@ -2520,52 +2643,55 @@
       <c r="AC8">
         <v>25</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" t="s">
+        <v>347</v>
+      </c>
+      <c r="AE8">
         <v>426538</v>
       </c>
-      <c r="AE8" t="s">
-        <v>340</v>
-      </c>
-      <c r="AF8">
+      <c r="AF8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AG8">
         <v>61</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>45</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>105</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>112</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>51.01</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>15.38</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>33.9</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>37.06</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>51.24</v>
       </c>
-      <c r="AO8" t="s">
-        <v>348</v>
-      </c>
-      <c r="AP8">
+      <c r="AP8" t="s">
+        <v>382</v>
+      </c>
+      <c r="AQ8">
         <v>59.43533479670864</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <v>24.75741105435649</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:44">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9">
         <v>4.9</v>
@@ -2607,28 +2733,28 @@
         <v>162</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="W9">
         <v>329</v>
@@ -2651,52 +2777,55 @@
       <c r="AC9">
         <v>156</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" t="s">
+        <v>348</v>
+      </c>
+      <c r="AE9">
         <v>2161000</v>
       </c>
-      <c r="AE9" t="s">
-        <v>341</v>
-      </c>
-      <c r="AF9">
+      <c r="AF9" t="s">
+        <v>375</v>
+      </c>
+      <c r="AG9">
         <v>166</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>509</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>2275</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>1751</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>74.84999999999999</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>26.25</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>51.51</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>68.31</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>75.37</v>
       </c>
-      <c r="AO9" t="s">
-        <v>349</v>
-      </c>
-      <c r="AP9">
+      <c r="AP9" t="s">
+        <v>383</v>
+      </c>
+      <c r="AQ9">
         <v>48.85400557556953</v>
       </c>
-      <c r="AQ9">
+      <c r="AR9">
         <v>2.341012851340118</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:44">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2738,28 +2867,28 @@
         <v>412</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="W10">
         <v>169</v>
@@ -2782,52 +2911,55 @@
       <c r="AC10">
         <v>20</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE10">
         <v>3167000</v>
       </c>
-      <c r="AE10" t="s">
-        <v>341</v>
-      </c>
-      <c r="AF10">
+      <c r="AF10" t="s">
+        <v>375</v>
+      </c>
+      <c r="AG10">
         <v>3</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>97</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>120</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>2771</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>56.66</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>10.8</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>34.64</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>43.69</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>54.76</v>
       </c>
-      <c r="AO10" t="s">
-        <v>350</v>
-      </c>
-      <c r="AP10">
+      <c r="AP10" t="s">
+        <v>384</v>
+      </c>
+      <c r="AQ10">
         <v>37.99207508123708</v>
       </c>
-      <c r="AQ10">
+      <c r="AR10">
         <v>23.72803543033514</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:44">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11">
         <v>5.9</v>
@@ -2869,28 +3001,28 @@
         <v>58</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="W11">
         <v>212</v>
@@ -2913,52 +3045,55 @@
       <c r="AC11">
         <v>58</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" t="s">
+        <v>350</v>
+      </c>
+      <c r="AE11">
         <v>544107</v>
       </c>
-      <c r="AE11" t="s">
-        <v>340</v>
-      </c>
-      <c r="AF11">
+      <c r="AF11" t="s">
+        <v>374</v>
+      </c>
+      <c r="AG11">
         <v>38</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>124</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>257</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>206</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>75.34999999999999</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>41.8</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>59.24</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>59.1</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>82.65000000000001</v>
       </c>
-      <c r="AO11" t="s">
-        <v>351</v>
-      </c>
-      <c r="AP11">
+      <c r="AP11" t="s">
+        <v>385</v>
+      </c>
+      <c r="AQ11">
         <v>53.3479355633932</v>
       </c>
-      <c r="AQ11">
+      <c r="AR11">
         <v>-6.268163839465581</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:44">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12">
         <v>7.4</v>
@@ -3000,28 +3135,28 @@
         <v>189</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="W12">
         <v>327</v>
@@ -3044,52 +3179,55 @@
       <c r="AC12">
         <v>73</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" t="s">
+        <v>351</v>
+      </c>
+      <c r="AE12">
         <v>2873000</v>
       </c>
-      <c r="AE12" t="s">
-        <v>341</v>
-      </c>
-      <c r="AF12">
+      <c r="AF12" t="s">
+        <v>375</v>
+      </c>
+      <c r="AG12">
         <v>381</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>300</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>551</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>7836</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>69.25</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>21.68</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>46.4</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>58.34</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>75.72</v>
       </c>
-      <c r="AO12" t="s">
-        <v>352</v>
-      </c>
-      <c r="AP12">
+      <c r="AP12" t="s">
+        <v>386</v>
+      </c>
+      <c r="AQ12">
         <v>41.89882302468736</v>
       </c>
-      <c r="AQ12">
+      <c r="AR12">
         <v>12.49402569592003</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:44">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13">
         <v>-1.6</v>
@@ -3131,28 +3269,28 @@
         <v>226</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="W13">
         <v>56</v>
@@ -3175,52 +3313,55 @@
       <c r="AC13">
         <v>12</v>
       </c>
-      <c r="AD13">
+      <c r="AD13" t="s">
+        <v>352</v>
+      </c>
+      <c r="AE13">
         <v>544386</v>
       </c>
-      <c r="AE13" t="s">
-        <v>340</v>
-      </c>
-      <c r="AF13">
+      <c r="AF13" t="s">
+        <v>374</v>
+      </c>
+      <c r="AG13">
         <v>23</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>60</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>78</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>85</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>45.91</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>12.9</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>30.06</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>35.36</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>43.95</v>
       </c>
-      <c r="AO13" t="s">
-        <v>353</v>
-      </c>
-      <c r="AP13">
+      <c r="AP13" t="s">
+        <v>387</v>
+      </c>
+      <c r="AQ13">
         <v>54.69195443262589</v>
       </c>
-      <c r="AQ13">
+      <c r="AR13">
         <v>25.28692951669238</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:44">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14">
         <v>0.7</v>
@@ -3262,28 +3403,28 @@
         <v>435</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="W14">
         <v>21</v>
@@ -3306,52 +3447,55 @@
       <c r="AC14">
         <v>8</v>
       </c>
-      <c r="AD14">
+      <c r="AD14" t="s">
+        <v>353</v>
+      </c>
+      <c r="AE14">
         <v>546824</v>
       </c>
-      <c r="AE14" t="s">
-        <v>340</v>
-      </c>
-      <c r="AF14">
+      <c r="AF14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AG14">
         <v>28</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>38</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>7</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>53</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>31.58</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>6.47</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>19.52</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>24.85</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>23.67</v>
       </c>
-      <c r="AO14" t="s">
-        <v>354</v>
-      </c>
-      <c r="AP14">
+      <c r="AP14" t="s">
+        <v>388</v>
+      </c>
+      <c r="AQ14">
         <v>41.9995732514203</v>
       </c>
-      <c r="AQ14">
+      <c r="AR14">
         <v>21.43358281466293</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:44">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15">
         <v>-0.2</v>
@@ -3393,28 +3537,28 @@
         <v>551</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="W15">
         <v>21</v>
@@ -3437,52 +3581,55 @@
       <c r="AC15">
         <v>11</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" t="s">
+        <v>354</v>
+      </c>
+      <c r="AE15">
         <v>669694</v>
       </c>
-      <c r="AE15" t="s">
-        <v>341</v>
-      </c>
-      <c r="AF15">
+      <c r="AF15" t="s">
+        <v>375</v>
+      </c>
+      <c r="AG15">
         <v>1</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>19</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>14</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>51</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>32.26</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>7.97</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>20.6</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>24.97</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>27.71</v>
       </c>
-      <c r="AO15" t="s">
-        <v>355</v>
-      </c>
-      <c r="AP15">
+      <c r="AP15" t="s">
+        <v>389</v>
+      </c>
+      <c r="AQ15">
         <v>47.0200395739754</v>
       </c>
-      <c r="AQ15">
+      <c r="AR15">
         <v>28.84439058028359</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:44">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16">
         <v>5.7</v>
@@ -3524,28 +3671,28 @@
         <v>134</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="W16">
         <v>381</v>
@@ -3568,52 +3715,55 @@
       <c r="AC16">
         <v>54</v>
       </c>
-      <c r="AD16">
+      <c r="AD16" t="s">
+        <v>355</v>
+      </c>
+      <c r="AE16">
         <v>821752</v>
       </c>
-      <c r="AE16" t="s">
-        <v>341</v>
-      </c>
-      <c r="AF16">
+      <c r="AF16" t="s">
+        <v>375</v>
+      </c>
+      <c r="AG16">
         <v>201</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>205</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>480</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>506</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>74.83</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>34.74</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>55.58</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>58.8</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>83.48999999999999</v>
       </c>
-      <c r="AO16" t="s">
-        <v>356</v>
-      </c>
-      <c r="AP16">
+      <c r="AP16" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ16">
         <v>52.37202464176371</v>
       </c>
-      <c r="AQ16">
+      <c r="AR16">
         <v>4.892997578064809</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:44">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17">
         <v>12</v>
@@ -3655,28 +3805,28 @@
         <v>53</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="W17">
         <v>157</v>
@@ -3699,52 +3849,55 @@
       <c r="AC17">
         <v>55</v>
       </c>
-      <c r="AD17">
+      <c r="AD17" t="s">
+        <v>356</v>
+      </c>
+      <c r="AE17">
         <v>504718</v>
       </c>
-      <c r="AE17" t="s">
-        <v>340</v>
-      </c>
-      <c r="AF17">
+      <c r="AF17" t="s">
+        <v>374</v>
+      </c>
+      <c r="AG17">
         <v>245</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>117</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>341</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>376</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>50.39</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>21.07</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>36.31</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>40.2</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>43.13</v>
       </c>
-      <c r="AO17" t="s">
-        <v>357</v>
-      </c>
-      <c r="AP17">
+      <c r="AP17" t="s">
+        <v>391</v>
+      </c>
+      <c r="AQ17">
         <v>38.72073913346741</v>
       </c>
-      <c r="AQ17">
+      <c r="AR17">
         <v>-9.138135109637144</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:44">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18">
         <v>1.6</v>
@@ -3786,28 +3939,28 @@
         <v>274</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="W18">
         <v>404</v>
@@ -3830,52 +3983,55 @@
       <c r="AC18">
         <v>75</v>
       </c>
-      <c r="AD18">
+      <c r="AD18" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE18">
         <v>1309000</v>
       </c>
-      <c r="AE18" t="s">
-        <v>341</v>
-      </c>
-      <c r="AF18">
+      <c r="AF18" t="s">
+        <v>375</v>
+      </c>
+      <c r="AG18">
         <v>144</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>242</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>430</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>521</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>45.12</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>18.27</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>32.23</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>38.08</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>33.25</v>
       </c>
-      <c r="AO18" t="s">
-        <v>358</v>
-      </c>
-      <c r="AP18">
+      <c r="AP18" t="s">
+        <v>392</v>
+      </c>
+      <c r="AQ18">
         <v>50.08223962044165</v>
       </c>
-      <c r="AQ18">
+      <c r="AR18">
         <v>14.43844765746311</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:44">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B19">
         <v>-1.2</v>
@@ -3917,28 +4073,28 @@
         <v>146</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="W19">
         <v>20</v>
@@ -3961,52 +4117,55 @@
       <c r="AC19">
         <v>57</v>
       </c>
-      <c r="AD19">
+      <c r="AD19" t="s">
+        <v>358</v>
+      </c>
+      <c r="AE19">
         <v>975551</v>
       </c>
-      <c r="AE19" t="s">
-        <v>341</v>
-      </c>
-      <c r="AF19">
+      <c r="AF19" t="s">
+        <v>375</v>
+      </c>
+      <c r="AG19">
         <v>66</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>2</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>311</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>284</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>71.55</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>26.05</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>49.7</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>63.45</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>75.04000000000001</v>
       </c>
-      <c r="AO19" t="s">
-        <v>359</v>
-      </c>
-      <c r="AP19">
+      <c r="AP19" t="s">
+        <v>393</v>
+      </c>
+      <c r="AQ19">
         <v>59.33158449882472</v>
       </c>
-      <c r="AQ19">
+      <c r="AR19">
         <v>18.06720417156543</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:44">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20">
         <v>3.4</v>
@@ -4048,28 +4207,28 @@
         <v>181</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="W20">
         <v>372</v>
@@ -4092,52 +4251,55 @@
       <c r="AC20">
         <v>96</v>
       </c>
-      <c r="AD20">
+      <c r="AD20" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE20">
         <v>3645000</v>
       </c>
-      <c r="AE20" t="s">
-        <v>341</v>
-      </c>
-      <c r="AF20">
+      <c r="AF20" t="s">
+        <v>375</v>
+      </c>
+      <c r="AG20">
         <v>253</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>2</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>871</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>1010</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>67.62</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>26.85</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>48.04</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>54.27</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>63.56</v>
       </c>
-      <c r="AO20" t="s">
-        <v>360</v>
-      </c>
-      <c r="AP20">
+      <c r="AP20" t="s">
+        <v>394</v>
+      </c>
+      <c r="AQ20">
         <v>52.52198407271333</v>
       </c>
-      <c r="AQ20">
+      <c r="AR20">
         <v>13.40351435315128</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:44">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B21">
         <v>4.7</v>
@@ -4179,28 +4341,28 @@
         <v>92</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="W21">
         <v>107</v>
@@ -4223,52 +4385,55 @@
       <c r="AC21">
         <v>29</v>
       </c>
-      <c r="AD21">
+      <c r="AD21" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE21">
         <v>181726</v>
       </c>
-      <c r="AE21" t="s">
-        <v>340</v>
-      </c>
-      <c r="AF21">
+      <c r="AF21" t="s">
+        <v>374</v>
+      </c>
+      <c r="AG21">
         <v>98</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>13</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>356</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>590</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>72.97</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>25.81</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>50.32</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>60.86</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>83.40000000000001</v>
       </c>
-      <c r="AO21" t="s">
-        <v>361</v>
-      </c>
-      <c r="AP21">
+      <c r="AP21" t="s">
+        <v>395</v>
+      </c>
+      <c r="AQ21">
         <v>50.88251872933396</v>
       </c>
-      <c r="AQ21">
+      <c r="AR21">
         <v>4.366899090634146</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:44">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22">
         <v>-1.7</v>
@@ -4310,28 +4475,28 @@
         <v>326</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W22">
         <v>27</v>
@@ -4354,52 +4519,55 @@
       <c r="AC22">
         <v>9</v>
       </c>
-      <c r="AD22">
+      <c r="AD22" t="s">
+        <v>361</v>
+      </c>
+      <c r="AE22">
         <v>275524</v>
       </c>
-      <c r="AE22" t="s">
-        <v>340</v>
-      </c>
-      <c r="AF22">
+      <c r="AF22" t="s">
+        <v>374</v>
+      </c>
+      <c r="AG22">
         <v>19</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>24</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>16</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>72</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>35.72</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>6.32</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>21.6</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>28.81</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>23.78</v>
       </c>
-      <c r="AO22" t="s">
-        <v>362</v>
-      </c>
-      <c r="AP22">
+      <c r="AP22" t="s">
+        <v>396</v>
+      </c>
+      <c r="AQ22">
         <v>43.85364821595164</v>
       </c>
-      <c r="AQ22">
+      <c r="AR22">
         <v>18.40047285350726</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:44">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B23">
         <v>2.2</v>
@@ -4441,28 +4609,28 @@
         <v>322</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="W23">
         <v>83</v>
@@ -4485,52 +4653,55 @@
       <c r="AC23">
         <v>16</v>
       </c>
-      <c r="AD23">
+      <c r="AD23" t="s">
+        <v>362</v>
+      </c>
+      <c r="AE23">
         <v>806341</v>
       </c>
-      <c r="AE23" t="s">
-        <v>341</v>
-      </c>
-      <c r="AF23">
+      <c r="AF23" t="s">
+        <v>375</v>
+      </c>
+      <c r="AG23">
         <v>21</v>
-      </c>
-      <c r="AG23">
-        <v>51</v>
       </c>
       <c r="AH23">
         <v>51</v>
       </c>
       <c r="AI23">
+        <v>51</v>
+      </c>
+      <c r="AJ23">
         <v>110</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>49.18</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>11.6</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>31.13</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>40.33</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>40.36</v>
       </c>
-      <c r="AO23" t="s">
-        <v>363</v>
-      </c>
-      <c r="AP23">
+      <c r="AP23" t="s">
+        <v>397</v>
+      </c>
+      <c r="AQ23">
         <v>45.80458077043125</v>
       </c>
-      <c r="AQ23">
+      <c r="AR23">
         <v>15.98321290147701</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:44">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B24">
         <v>2.6</v>
@@ -4572,28 +4743,28 @@
         <v>172</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="W24">
         <v>61</v>
@@ -4616,52 +4787,55 @@
       <c r="AC24">
         <v>33</v>
       </c>
-      <c r="AD24">
+      <c r="AD24" t="s">
+        <v>363</v>
+      </c>
+      <c r="AE24">
         <v>424428</v>
       </c>
-      <c r="AE24" t="s">
-        <v>340</v>
-      </c>
-      <c r="AF24">
+      <c r="AF24" t="s">
+        <v>374</v>
+      </c>
+      <c r="AG24">
         <v>26</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>47</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>67</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>121</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>44.98</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>16.13</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>31.13</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>38.5</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>33.64</v>
       </c>
-      <c r="AO24" t="s">
-        <v>364</v>
-      </c>
-      <c r="AP24">
+      <c r="AP24" t="s">
+        <v>398</v>
+      </c>
+      <c r="AQ24">
         <v>48.14134349626256</v>
       </c>
-      <c r="AQ24">
+      <c r="AR24">
         <v>17.10595228640711</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:44">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B25">
         <v>-3.3</v>
@@ -4703,28 +4877,28 @@
         <v>368</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="W25">
         <v>50</v>
@@ -4747,52 +4921,55 @@
       <c r="AC25">
         <v>54</v>
       </c>
-      <c r="AD25">
+      <c r="AD25" t="s">
+        <v>364</v>
+      </c>
+      <c r="AE25">
         <v>631695</v>
       </c>
-      <c r="AE25" t="s">
-        <v>340</v>
-      </c>
-      <c r="AF25">
+      <c r="AF25" t="s">
+        <v>374</v>
+      </c>
+      <c r="AG25">
         <v>43</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>67</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>233</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>130</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>72.81999999999999</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>26.14</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>50.4</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>60.02</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>77.91</v>
       </c>
-      <c r="AO25" t="s">
-        <v>365</v>
-      </c>
-      <c r="AP25">
+      <c r="AP25" t="s">
+        <v>399</v>
+      </c>
+      <c r="AQ25">
         <v>60.16937051654261</v>
       </c>
-      <c r="AQ25">
+      <c r="AR25">
         <v>24.93834034306121</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:44">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B26">
         <v>1.8</v>
@@ -4834,28 +5011,28 @@
         <v>158</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="W26">
         <v>213</v>
@@ -4878,52 +5055,55 @@
       <c r="AC26">
         <v>52</v>
       </c>
-      <c r="AD26">
+      <c r="AD26" t="s">
+        <v>365</v>
+      </c>
+      <c r="AE26">
         <v>9640503</v>
       </c>
-      <c r="AE26" t="s">
-        <v>341</v>
-      </c>
-      <c r="AF26">
+      <c r="AF26" t="s">
+        <v>375</v>
+      </c>
+      <c r="AG26">
         <v>99</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>3</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>211</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>377</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>42.03</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>13.64</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>28.4</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>32.36</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>33.43</v>
       </c>
-      <c r="AO26" t="s">
-        <v>366</v>
-      </c>
-      <c r="AP26">
+      <c r="AP26" t="s">
+        <v>400</v>
+      </c>
+      <c r="AQ26">
         <v>47.50142717714276</v>
       </c>
-      <c r="AQ26">
+      <c r="AR26">
         <v>19.05191235061751</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:44">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4965,28 +5145,28 @@
         <v>536</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="W27">
         <v>40</v>
@@ -5009,52 +5189,55 @@
       <c r="AC27">
         <v>20</v>
       </c>
-      <c r="AD27">
+      <c r="AD27" t="s">
+        <v>366</v>
+      </c>
+      <c r="AE27">
         <v>122853</v>
       </c>
-      <c r="AE27" t="s">
-        <v>340</v>
-      </c>
-      <c r="AF27">
+      <c r="AF27" t="s">
+        <v>374</v>
+      </c>
+      <c r="AG27">
         <v>11</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>41</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>43</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>31</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>101.86</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>48.28</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>76.13</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>92.09999999999999</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>111.85</v>
       </c>
-      <c r="AO27" t="s">
-        <v>367</v>
-      </c>
-      <c r="AP27">
+      <c r="AP27" t="s">
+        <v>401</v>
+      </c>
+      <c r="AQ27">
         <v>64.12411368467832</v>
       </c>
-      <c r="AQ27">
+      <c r="AR27">
         <v>-21.82760035093589</v>
       </c>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:44">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B28">
         <v>1.7</v>
@@ -5096,28 +5279,28 @@
         <v>348</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="W28">
         <v>63</v>
@@ -5140,52 +5323,55 @@
       <c r="AC28">
         <v>19</v>
       </c>
-      <c r="AD28">
+      <c r="AD28" t="s">
+        <v>367</v>
+      </c>
+      <c r="AE28">
         <v>632614</v>
       </c>
-      <c r="AE28" t="s">
-        <v>340</v>
-      </c>
-      <c r="AF28">
+      <c r="AF28" t="s">
+        <v>374</v>
+      </c>
+      <c r="AG28">
         <v>38</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>1</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>90</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>100</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>49.23</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>12.02</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>31.36</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>36.65</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>45.47</v>
       </c>
-      <c r="AO28" t="s">
-        <v>368</v>
-      </c>
-      <c r="AP28">
+      <c r="AP28" t="s">
+        <v>402</v>
+      </c>
+      <c r="AQ28">
         <v>56.95579764892386</v>
       </c>
-      <c r="AQ28">
+      <c r="AR28">
         <v>24.10511337467048</v>
       </c>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:44">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B29">
         <v>1.9</v>
@@ -5227,28 +5413,28 @@
         <v>130</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="W29">
         <v>16</v>
@@ -5271,52 +5457,55 @@
       <c r="AC29">
         <v>42</v>
       </c>
-      <c r="AD29">
+      <c r="AD29" t="s">
+        <v>368</v>
+      </c>
+      <c r="AE29">
         <v>639070</v>
       </c>
-      <c r="AE29" t="s">
-        <v>341</v>
-      </c>
-      <c r="AF29">
+      <c r="AF29" t="s">
+        <v>375</v>
+      </c>
+      <c r="AG29">
         <v>43</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>49</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>263</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>378</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>86.09</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>55.64</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>71.47</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>75.09999999999999</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>96.08</v>
       </c>
-      <c r="AO29" t="s">
-        <v>369</v>
-      </c>
-      <c r="AP29">
+      <c r="AP29" t="s">
+        <v>403</v>
+      </c>
+      <c r="AQ29">
         <v>49.61046728319472</v>
       </c>
-      <c r="AQ29">
+      <c r="AR29">
         <v>6.13055411335307</v>
       </c>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:44">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B30">
         <v>11.6</v>
@@ -5358,28 +5547,28 @@
         <v>199</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="W30">
         <v>7</v>
@@ -5402,52 +5591,55 @@
       <c r="AC30">
         <v>4</v>
       </c>
-      <c r="AD30">
+      <c r="AD30" t="s">
+        <v>369</v>
+      </c>
+      <c r="AE30">
         <v>5730</v>
       </c>
-      <c r="AE30" t="s">
-        <v>340</v>
-      </c>
-      <c r="AF30">
+      <c r="AF30" t="s">
+        <v>374</v>
+      </c>
+      <c r="AG30">
         <v>1</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>30</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>95</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>291</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>63.32</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>28.68</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>46.69</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>51.23</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>67.28</v>
       </c>
-      <c r="AO30" t="s">
-        <v>370</v>
-      </c>
-      <c r="AP30">
+      <c r="AP30" t="s">
+        <v>404</v>
+      </c>
+      <c r="AQ30">
         <v>35.89904573561591</v>
       </c>
-      <c r="AQ30">
+      <c r="AR30">
         <v>14.51464694982352</v>
       </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:44">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B31">
         <v>-2.1</v>
@@ -5489,28 +5681,28 @@
         <v>315</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="W31">
         <v>48</v>
@@ -5533,52 +5725,55 @@
       <c r="AC31">
         <v>56</v>
       </c>
-      <c r="AD31">
+      <c r="AD31" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE31">
         <v>634293</v>
       </c>
-      <c r="AE31" t="s">
-        <v>340</v>
-      </c>
-      <c r="AF31">
+      <c r="AF31" t="s">
+        <v>374</v>
+      </c>
+      <c r="AG31">
         <v>24</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>88</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>188</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>144</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>100.99</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>37.28</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>70.40000000000001</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>92.67</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>111.53</v>
       </c>
-      <c r="AO31" t="s">
-        <v>371</v>
-      </c>
-      <c r="AP31">
+      <c r="AP31" t="s">
+        <v>405</v>
+      </c>
+      <c r="AQ31">
         <v>59.91238549365089</v>
       </c>
-      <c r="AQ31">
+      <c r="AR31">
         <v>10.7491253941196</v>
       </c>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:44">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B32">
         <v>1.1</v>
@@ -5620,28 +5815,28 @@
         <v>108</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="W32">
         <v>93</v>
@@ -5664,52 +5859,55 @@
       <c r="AC32">
         <v>40</v>
       </c>
-      <c r="AD32">
+      <c r="AD32" t="s">
+        <v>371</v>
+      </c>
+      <c r="AE32">
         <v>1765000</v>
       </c>
-      <c r="AE32" t="s">
-        <v>341</v>
-      </c>
-      <c r="AF32">
+      <c r="AF32" t="s">
+        <v>375</v>
+      </c>
+      <c r="AG32">
         <v>153</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>199</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>313</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>482</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>39.13</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>14.92</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>27.5</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>30.66</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>32.72</v>
       </c>
-      <c r="AO32" t="s">
-        <v>372</v>
-      </c>
-      <c r="AP32">
+      <c r="AP32" t="s">
+        <v>406</v>
+      </c>
+      <c r="AQ32">
         <v>52.24486263090439</v>
       </c>
-      <c r="AQ32">
+      <c r="AR32">
         <v>21.01611488487888</v>
       </c>
     </row>
-    <row r="33" spans="1:43">
+    <row r="33" spans="1:44">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -5751,28 +5949,28 @@
         <v>189</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="W33">
         <v>103</v>
@@ -5795,52 +5993,55 @@
       <c r="AC33">
         <v>27</v>
       </c>
-      <c r="AD33">
+      <c r="AD33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AE33">
         <v>1830000</v>
       </c>
-      <c r="AE33" t="s">
-        <v>341</v>
-      </c>
-      <c r="AF33">
+      <c r="AF33" t="s">
+        <v>375</v>
+      </c>
+      <c r="AG33">
         <v>62</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>1</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>116</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>427</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>36.45</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>10</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>23.75</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>29.88</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>32.26</v>
       </c>
-      <c r="AO33" t="s">
-        <v>373</v>
-      </c>
-      <c r="AP33">
+      <c r="AP33" t="s">
+        <v>407</v>
+      </c>
+      <c r="AQ33">
         <v>44.42906351875826</v>
       </c>
-      <c r="AQ33">
+      <c r="AR33">
         <v>26.09871712196997</v>
       </c>
     </row>
-    <row r="34" spans="1:43">
+    <row r="34" spans="1:44">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B34">
         <v>2.3</v>
@@ -5882,28 +6083,28 @@
         <v>378</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="W34">
         <v>129</v>
@@ -5926,46 +6127,49 @@
       <c r="AC34">
         <v>18</v>
       </c>
-      <c r="AD34">
+      <c r="AD34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AE34">
         <v>1374000</v>
       </c>
-      <c r="AE34" t="s">
-        <v>341</v>
-      </c>
-      <c r="AF34">
+      <c r="AF34" t="s">
+        <v>375</v>
+      </c>
+      <c r="AG34">
         <v>84</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>82</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>4</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>301</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>35.39</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>8.08</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>22.27</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>26.3</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>27.84</v>
       </c>
-      <c r="AO34" t="s">
-        <v>374</v>
-      </c>
-      <c r="AP34">
+      <c r="AP34" t="s">
+        <v>408</v>
+      </c>
+      <c r="AQ34">
         <v>44.8090337390697</v>
       </c>
-      <c r="AQ34">
+      <c r="AR34">
         <v>20.46228975750678</v>
       </c>
     </row>
